--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD1125-2A56-4044-B5FB-65B2AAC90789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6EDBE-592D-4DA1-B72A-9A2132ECEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="808">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2499,9 +2499,6 @@
       </rPr>
       <t xml:space="preserve"> from the table.</t>
     </r>
-  </si>
-  <si>
-    <t>Given the Last name, return its emptype from the product table.</t>
   </si>
   <si>
     <r>
@@ -2680,6 +2677,12 @@
   <si>
     <t>Employee Type = Permanent</t>
   </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>Given the Last name, return its emptype from the table.</t>
+  </si>
 </sst>
 </file>
 
@@ -2692,7 +2695,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2771,6 +2774,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2833,7 +2844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2952,17 +2963,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3085,27 +3085,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -19432,11 +19432,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19455,11 +19455,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="65" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19478,11 +19478,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="65" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19576,11 +19576,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="65" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19769,10 +19769,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B826DB7-AA87-4535-804C-6B76CD582ABC}">
-  <dimension ref="A4:F75"/>
+  <dimension ref="A4:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19871,7 +19871,7 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>221</v>
       </c>
     </row>
@@ -19919,92 +19919,89 @@
         <v>114177.23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="B33" s="66" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
-      <c r="B34" s="57" t="s">
-        <v>794</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
-      <c r="B35" s="60" t="s">
-        <v>795</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="B35" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
-      <c r="B36" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="65" t="str">
-        <f>VLOOKUP(B36,staff[],2,FALSE)</f>
-        <v>Althea</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="B36" s="59" t="s">
+        <v>795</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="B37" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="67" t="str">
+        <f>VLOOKUP(B37,staff[],2,FALSE)</f>
+        <v>Althea</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
-      <c r="B38" s="57" t="s">
-        <v>796</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="38"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
-      <c r="B39" s="60" t="s">
-        <v>436</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="B39" s="56" t="s">
+        <v>807</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
-      <c r="B40" s="63" t="str">
-        <f>INDEX(staff[Employee type],MATCH(B39,staff[Last Name],0))</f>
-        <v>Permanent</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="B40" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="67" t="str">
+        <f>INDEX(staff[Employee type],MATCH(B40,staff[Last Name],0))</f>
+        <v>Permanent</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -20017,97 +20014,97 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
-      <c r="B43" s="57" t="s">
-        <v>797</v>
-      </c>
-      <c r="C43" s="59"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
-      <c r="B44" s="60" t="s">
-        <v>798</v>
-      </c>
-      <c r="C44" s="62"/>
+      <c r="B44" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="C44" s="58"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="62"/>
+      <c r="B45" s="59" t="s">
+        <v>797</v>
+      </c>
+      <c r="C45" s="60"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
-      <c r="B46" s="60">
-        <v>120000</v>
-      </c>
-      <c r="C46" s="62"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
-      <c r="B47" s="63" t="str">
-        <f>INDEX(staff[First Name],MATCH(B46,staff[Salary],0))</f>
-        <v>Minerva</v>
-      </c>
-      <c r="C47" s="65"/>
+      <c r="B47" s="67">
+        <v>120000</v>
+      </c>
+      <c r="C47" s="60"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="67" t="str">
+        <f>INDEX(staff[First Name],MATCH(B47,staff[Salary],0))</f>
+        <v>Minerva</v>
+      </c>
+      <c r="C48" s="62"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
-      <c r="B49" s="57" t="s">
-        <v>799</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
-      <c r="B50" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
+      <c r="B50" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
-      <c r="B51" s="66">
-        <f>INDEX(staff[Start Date],MATCH(B50,staff[Last Name],0))</f>
-        <v>44120</v>
-      </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="69">
+        <f>INDEX(staff[Start Date],MATCH(B51,staff[Last Name],0))</f>
+        <v>44120</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
     </row>
@@ -20129,196 +20126,204 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
-      <c r="B55" s="57" t="s">
-        <v>800</v>
-      </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="59"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
-      <c r="B56" s="60">
-        <v>8</v>
-      </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
+      <c r="B56" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="58"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
-      <c r="B57" s="63" t="str">
+      <c r="B57" s="67">
+        <v>8</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="60"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="67" t="str">
         <f>INDEX(staff[Employee type], 8)</f>
         <v>Permanent</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="65"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
-      <c r="B59" s="57" t="s">
-        <v>801</v>
-      </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="38"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
+      <c r="B60" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="38"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
-      <c r="B61" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="38"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="62"/>
+      <c r="B62" s="63" t="s">
+        <v>801</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="38"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
-      <c r="B63" s="67" t="s">
-        <v>803</v>
-      </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="38"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
+      <c r="B64" s="63" t="s">
+        <v>802</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="38"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
-      <c r="B65" s="68" cm="1">
-        <f t="array" ref="B65">INDEX(staff[Salary], MATCH(1, (staff[Gender]="Male")*(staff[Department]="Engineering"), 0))</f>
-        <v>120000</v>
-      </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="38"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
+      <c r="B66" s="68" cm="1">
+        <f t="array" ref="B66">INDEX(staff[Salary], MATCH(1, (staff[Gender]="Male")*(staff[Department]="Engineering"), 0))</f>
+        <v>120000</v>
+      </c>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
-      <c r="B67" s="57" t="s">
-        <v>804</v>
-      </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="59"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
+      <c r="B68" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
-      <c r="B69" s="69" t="s">
-        <v>805</v>
-      </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="60"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
+      <c r="B70" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="60"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
-      <c r="B71" s="69" t="s">
-        <v>806</v>
-      </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="60"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
+      <c r="B72" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="60"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="62"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="60"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
-      <c r="B74" s="63" t="str" cm="1">
-        <f t="array" ref="B74">INDEX(staff[Work location],MATCH(1,(staff[Gender]="Male")*(staff[Employee type]="Permanent"),0))</f>
-        <v>Remote</v>
-      </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="60"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
+      <c r="B75" s="67" t="str" cm="1">
+        <f t="array" ref="B75">INDEX(staff[Work location],MATCH(1,(staff[Gender]="Male")*(staff[Employee type]="Permanent"),0))</f>
+        <v>Remote</v>
+      </c>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E4E4C-B334-4EAB-AA6E-B7421C0577C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E989EB-FE51-4D51-8180-D8B79D4A6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$2:$B$16</definedName>
@@ -45,9 +46,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -58,30 +58,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="825">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2735,19 +2721,35 @@
   <si>
     <t>Female emp with Monday start</t>
   </si>
+  <si>
+    <t>In excel Sunday=1 ,Monday =2…</t>
+  </si>
+  <si>
+    <t>Department report of Headcount,salaries,% diff from overall avg</t>
+  </si>
+  <si>
+    <t>%diff from overall avg</t>
+  </si>
+  <si>
+    <t>All Department</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2848,8 +2850,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2909,8 +2918,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3042,6 +3063,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3049,7 +3081,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3169,14 +3201,55 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3318,64 +3391,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15929,7 +15944,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19540,11 +19555,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19563,11 +19578,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="72" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19586,11 +19601,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19684,11 +19699,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19900,7 +19915,7 @@
       <c r="C4" s="50"/>
     </row>
     <row r="5" spans="2:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="69" t="s">
         <v>808</v>
       </c>
     </row>
@@ -20680,10 +20695,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A44162-034B-4E1D-B18B-797423530B7C}">
-  <dimension ref="B3:N402"/>
+  <dimension ref="B3:S402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView topLeftCell="A25" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20695,42 +20710,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="88" t="s">
         <v>812</v>
       </c>
+      <c r="C3" s="88"/>
     </row>
     <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
         <v>814</v>
       </c>
-      <c r="C5" s="71" t="str" cm="1">
+      <c r="C5" s="70" t="str" cm="1">
         <f t="array" ref="C5">_xlfn.XLOOKUP(MAX(staff[Salary]),staff[Salary],staff[First Name]&amp;" "&amp;staff[Last Name])</f>
         <v>Minerva Ricardot</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>813</v>
       </c>
-      <c r="C9" s="71" t="str" cm="1">
+      <c r="C9" s="70" t="str" cm="1">
         <f t="array" ref="C9:C10">_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000)</f>
         <v>Minerva Ricardot</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="71" t="str">
+      <c r="C10" s="70" t="str">
         <v>Mick Spraberry</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>815</v>
       </c>
-      <c r="C12" s="71" t="str" cm="1">
+      <c r="C12" s="70" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(" , ",,_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000))</f>
         <v>Minerva Ricardot , Mick Spraberry</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="73" t="s">
@@ -25931,7 +25947,7 @@
       </c>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B161" t="str">
         <v>VT03993</v>
       </c>
@@ -25943,7 +25959,7 @@
       </c>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B162" t="str">
         <v>VT04028</v>
       </c>
@@ -25955,7 +25971,7 @@
       </c>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B163" t="str">
         <v>VT04028</v>
       </c>
@@ -25967,7 +25983,7 @@
       </c>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B164" t="str">
         <v>VT04415</v>
       </c>
@@ -25979,239 +25995,2599 @@
       </c>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+    <row r="167" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B167" s="49" t="s">
         <v>819</v>
       </c>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B168" t="e" cm="1" vm="1">
-        <f t="array" ref="B168">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],DAY(staff[Start Date])="Monday")</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I169" s="6"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I170" s="6"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I171" s="6"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I172" s="6"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I173" s="6"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I174" s="6"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I175" s="6"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I176" s="6"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I177" s="6"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I178" s="6"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I179" s="6"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I180" s="6"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I181" s="6"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I182" s="6"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I183" s="6"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I184" s="6"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I185" s="6"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I186" s="6"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I187" s="6"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I189" s="6"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I190" s="6"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I191" s="6"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I192" s="6"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I193" s="6"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I194" s="6"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I195" s="6"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I196" s="6"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I197" s="6"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I198" s="6"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I199" s="6"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I200" s="6"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I201" s="6"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I202" s="6"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I203" s="6"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I204" s="6"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I205" s="6"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I206" s="6"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I207" s="6"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I208" s="6"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I209" s="6"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I210" s="6"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I211" s="6"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I212" s="6"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I213" s="6"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I214" s="6"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I215" s="6"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I216" s="6"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I217" s="6"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I218" s="6"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I219" s="6"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I220" s="6"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I221" s="6"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I222" s="6"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I223" s="6"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I224" s="6"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I225" s="6"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I226" s="6"/>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I227" s="6"/>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I228" s="6"/>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I229" s="6"/>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I230" s="6"/>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B169" s="76" t="str" cm="1">
+        <f t="array" ref="B169:N230">_xlfn._xlws.FILTER(staff[], (staff[Gender]="Female") * (WEEKDAY(staff[Start Date])=2))</f>
+        <v>PR00007</v>
+      </c>
+      <c r="C169" s="77" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="D169" s="77" t="str">
+        <v>Collier</v>
+      </c>
+      <c r="E169" s="77" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F169" s="77" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G169" s="77">
+        <v>96135.75</v>
+      </c>
+      <c r="H169" s="77" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I169" s="78">
+        <v>44025</v>
+      </c>
+      <c r="J169" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="K169" s="77" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L169" s="77" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M169" s="77">
+        <v>3.9424657534246577</v>
+      </c>
+      <c r="N169" s="79" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B170" s="80" t="str">
+        <v>PR00095</v>
+      </c>
+      <c r="C170" s="81" t="str">
+        <v>Devrat</v>
+      </c>
+      <c r="D170" s="81" t="str">
+        <v>Damarsingh</v>
+      </c>
+      <c r="E170" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F170" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G170" s="81">
+        <v>70649.460000000006</v>
+      </c>
+      <c r="H170" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I170" s="82">
+        <v>43843</v>
+      </c>
+      <c r="J170" s="81">
+        <v>1</v>
+      </c>
+      <c r="K170" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L170" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M170" s="81">
+        <v>4.441095890410959</v>
+      </c>
+      <c r="N170" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B171" s="80" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C171" s="81" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D171" s="81" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="E171" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F171" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G171" s="81">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="H171" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I171" s="82">
+        <v>43360</v>
+      </c>
+      <c r="J171" s="81">
+        <v>1</v>
+      </c>
+      <c r="K171" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L171" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M171" s="81">
+        <v>5.7643835616438359</v>
+      </c>
+      <c r="N171" s="83" t="str">
+        <v>Full time</v>
+      </c>
+      <c r="Q171" s="75" t="s">
+        <v>820</v>
+      </c>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B172" s="80" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="C172" s="81" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D172" s="81" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="E172" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F172" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G172" s="81">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="H172" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I172" s="82">
+        <v>43360</v>
+      </c>
+      <c r="J172" s="81">
+        <v>1</v>
+      </c>
+      <c r="K172" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L172" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M172" s="81">
+        <v>5.7643835616438359</v>
+      </c>
+      <c r="N172" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B173" s="80" t="str">
+        <v>PR00576</v>
+      </c>
+      <c r="C173" s="81" t="str">
+        <v>Lalitchandra</v>
+      </c>
+      <c r="D173" s="81" t="str">
+        <v>Vadali</v>
+      </c>
+      <c r="E173" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F173" s="81" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G173" s="81">
+        <v>63705.4</v>
+      </c>
+      <c r="H173" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I173" s="82">
+        <v>43682</v>
+      </c>
+      <c r="J173" s="81">
+        <v>1</v>
+      </c>
+      <c r="K173" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L173" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M173" s="81">
+        <v>4.882191780821918</v>
+      </c>
+      <c r="N173" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B174" s="80" t="str">
+        <v>PR00916</v>
+      </c>
+      <c r="C174" s="81" t="str">
+        <v>Inger</v>
+      </c>
+      <c r="D174" s="81" t="str">
+        <v>Chapelhow</v>
+      </c>
+      <c r="E174" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F174" s="81" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G174" s="81">
+        <v>84309.95</v>
+      </c>
+      <c r="H174" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I174" s="82">
+        <v>44501</v>
+      </c>
+      <c r="J174" s="81">
+        <v>1</v>
+      </c>
+      <c r="K174" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L174" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M174" s="81">
+        <v>2.6383561643835618</v>
+      </c>
+      <c r="N174" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B175" s="80" t="str">
+        <v>PR01383</v>
+      </c>
+      <c r="C175" s="81" t="str">
+        <v>Addi</v>
+      </c>
+      <c r="D175" s="81" t="str">
+        <v>Studdeard</v>
+      </c>
+      <c r="E175" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F175" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G175" s="81">
+        <v>72502.61</v>
+      </c>
+      <c r="H175" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I175" s="82">
+        <v>44235</v>
+      </c>
+      <c r="J175" s="81">
+        <v>1</v>
+      </c>
+      <c r="K175" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L175" s="81" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M175" s="81">
+        <v>3.3671232876712329</v>
+      </c>
+      <c r="N175" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B176" s="80" t="str">
+        <v>PR02016</v>
+      </c>
+      <c r="C176" s="81" t="str">
+        <v>Iris</v>
+      </c>
+      <c r="D176" s="81" t="str">
+        <v>Wagg</v>
+      </c>
+      <c r="E176" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F176" s="81" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G176" s="81">
+        <v>58861.19</v>
+      </c>
+      <c r="H176" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I176" s="82">
+        <v>43654</v>
+      </c>
+      <c r="J176" s="81">
+        <v>1</v>
+      </c>
+      <c r="K176" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L176" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M176" s="81">
+        <v>4.9589041095890414</v>
+      </c>
+      <c r="N176" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="80" t="str">
+        <v>PR02113</v>
+      </c>
+      <c r="C177" s="81" t="str">
+        <v>Beverie</v>
+      </c>
+      <c r="D177" s="81" t="str">
+        <v>Moffet</v>
+      </c>
+      <c r="E177" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F177" s="81" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G177" s="81">
+        <v>75974.990000000005</v>
+      </c>
+      <c r="H177" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I177" s="82">
+        <v>44172</v>
+      </c>
+      <c r="J177" s="81">
+        <v>1</v>
+      </c>
+      <c r="K177" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L177" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M177" s="81">
+        <v>3.5397260273972604</v>
+      </c>
+      <c r="N177" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="80" t="str">
+        <v>PR02275</v>
+      </c>
+      <c r="C178" s="81" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D178" s="81" t="str">
+        <v>Lamming</v>
+      </c>
+      <c r="E178" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F178" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G178" s="81">
+        <v>41934.71</v>
+      </c>
+      <c r="H178" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I178" s="82">
+        <v>43780</v>
+      </c>
+      <c r="J178" s="81">
+        <v>1</v>
+      </c>
+      <c r="K178" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L178" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M178" s="81">
+        <v>4.6136986301369864</v>
+      </c>
+      <c r="N178" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="80" t="str">
+        <v>PR02436</v>
+      </c>
+      <c r="C179" s="81" t="str">
+        <v>Marmaduke</v>
+      </c>
+      <c r="D179" s="81" t="str">
+        <v>Worssam</v>
+      </c>
+      <c r="E179" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F179" s="81" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G179" s="81">
+        <v>78378.2</v>
+      </c>
+      <c r="H179" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I179" s="82">
+        <v>43465</v>
+      </c>
+      <c r="J179" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="K179" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L179" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M179" s="81">
+        <v>5.4767123287671229</v>
+      </c>
+      <c r="N179" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="80" t="str">
+        <v>PR02603</v>
+      </c>
+      <c r="C180" s="81" t="str">
+        <v>Dinanath</v>
+      </c>
+      <c r="D180" s="81" t="str">
+        <v>Simhambhatla</v>
+      </c>
+      <c r="E180" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F180" s="81" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G180" s="81">
+        <v>61994.76</v>
+      </c>
+      <c r="H180" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I180" s="82">
+        <v>43794</v>
+      </c>
+      <c r="J180" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K180" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L180" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M180" s="81">
+        <v>4.5753424657534243</v>
+      </c>
+      <c r="N180" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="80" t="str">
+        <v>PR03158</v>
+      </c>
+      <c r="C181" s="81" t="str">
+        <v>Danica</v>
+      </c>
+      <c r="D181" s="81" t="str">
+        <v>Nayshe</v>
+      </c>
+      <c r="E181" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F181" s="81" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G181" s="81">
+        <v>89690.38</v>
+      </c>
+      <c r="H181" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I181" s="82">
+        <v>43206</v>
+      </c>
+      <c r="J181" s="81">
+        <v>1</v>
+      </c>
+      <c r="K181" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L181" s="81" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M181" s="81">
+        <v>6.1863013698630134</v>
+      </c>
+      <c r="N181" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="80" t="str">
+        <v>PR04380</v>
+      </c>
+      <c r="C182" s="81" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D182" s="81" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="E182" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F182" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G182" s="81">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="H182" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I182" s="82">
+        <v>43787</v>
+      </c>
+      <c r="J182" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="K182" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L182" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M182" s="81">
+        <v>4.5945205479452058</v>
+      </c>
+      <c r="N182" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="80" t="str">
+        <v>PR04446</v>
+      </c>
+      <c r="C183" s="81" t="str">
+        <v>Sameer</v>
+      </c>
+      <c r="D183" s="81" t="str">
+        <v>Shashank</v>
+      </c>
+      <c r="E183" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F183" s="81" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G183" s="81">
+        <v>92336.08</v>
+      </c>
+      <c r="H183" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I183" s="82">
+        <v>44431</v>
+      </c>
+      <c r="J183" s="81">
+        <v>1</v>
+      </c>
+      <c r="K183" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L183" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M183" s="81">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="N183" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="80" t="str">
+        <v>PR04473</v>
+      </c>
+      <c r="C184" s="81" t="str">
+        <v>Wyn</v>
+      </c>
+      <c r="D184" s="81" t="str">
+        <v>Treadger</v>
+      </c>
+      <c r="E184" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F184" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G184" s="81">
+        <v>69192.850000000006</v>
+      </c>
+      <c r="H184" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I184" s="82">
+        <v>44305</v>
+      </c>
+      <c r="J184" s="81">
+        <v>1</v>
+      </c>
+      <c r="K184" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L184" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M184" s="81">
+        <v>3.1753424657534248</v>
+      </c>
+      <c r="N184" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="80" t="str">
+        <v>PR04686</v>
+      </c>
+      <c r="C185" s="81" t="str">
+        <v>Oona</v>
+      </c>
+      <c r="D185" s="81" t="str">
+        <v>Donan</v>
+      </c>
+      <c r="E185" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F185" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G185" s="81">
+        <v>98000</v>
+      </c>
+      <c r="H185" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I185" s="82">
+        <v>43710</v>
+      </c>
+      <c r="J185" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="K185" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L185" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M185" s="81">
+        <v>4.8054794520547945</v>
+      </c>
+      <c r="N185" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="80" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="C186" s="81" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="D186" s="81" t="str">
+        <v>Ragunathan</v>
+      </c>
+      <c r="E186" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F186" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G186" s="81">
+        <v>86010.54</v>
+      </c>
+      <c r="H186" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I186" s="82">
+        <v>43164</v>
+      </c>
+      <c r="J186" s="81">
+        <v>1</v>
+      </c>
+      <c r="K186" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L186" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M186" s="81">
+        <v>6.3013698630136989</v>
+      </c>
+      <c r="N186" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="80" t="str">
+        <v>SQ00841</v>
+      </c>
+      <c r="C187" s="81" t="str">
+        <v>Bhuvan</v>
+      </c>
+      <c r="D187" s="81" t="str">
+        <v>Pals</v>
+      </c>
+      <c r="E187" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F187" s="81" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G187" s="81">
+        <v>89690.38</v>
+      </c>
+      <c r="H187" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I187" s="82">
+        <v>43213</v>
+      </c>
+      <c r="J187" s="81">
+        <v>1</v>
+      </c>
+      <c r="K187" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L187" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M187" s="81">
+        <v>6.1671232876712327</v>
+      </c>
+      <c r="N187" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="80" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C188" s="81" t="str">
+        <v>Duran</v>
+      </c>
+      <c r="D188" s="81" t="str">
+        <v>Appala</v>
+      </c>
+      <c r="E188" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F188" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G188" s="81">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="H188" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I188" s="82">
+        <v>43962</v>
+      </c>
+      <c r="J188" s="81">
+        <v>1</v>
+      </c>
+      <c r="K188" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L188" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M188" s="81">
+        <v>4.1150684931506847</v>
+      </c>
+      <c r="N188" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="80" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C189" s="81" t="str">
+        <v>Karuna</v>
+      </c>
+      <c r="D189" s="81" t="str">
+        <v>Pashupathy</v>
+      </c>
+      <c r="E189" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F189" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G189" s="81">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="H189" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I189" s="82">
+        <v>43962</v>
+      </c>
+      <c r="J189" s="81">
+        <v>1</v>
+      </c>
+      <c r="K189" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L189" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M189" s="81">
+        <v>4.1150684931506847</v>
+      </c>
+      <c r="N189" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="80" t="str">
+        <v>SQ01402</v>
+      </c>
+      <c r="C190" s="81" t="str">
+        <v>Sahaj</v>
+      </c>
+      <c r="D190" s="81" t="str">
+        <v>Jonnalagadda</v>
+      </c>
+      <c r="E190" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F190" s="81" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G190" s="81">
+        <v>44403.77</v>
+      </c>
+      <c r="H190" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I190" s="82">
+        <v>43416</v>
+      </c>
+      <c r="J190" s="81">
+        <v>1</v>
+      </c>
+      <c r="K190" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L190" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M190" s="81">
+        <v>5.6109589041095891</v>
+      </c>
+      <c r="N190" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="80" t="str">
+        <v>SQ01730</v>
+      </c>
+      <c r="C191" s="81" t="str">
+        <v>Austine</v>
+      </c>
+      <c r="D191" s="81" t="str">
+        <v>Littlewood</v>
+      </c>
+      <c r="E191" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F191" s="81" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G191" s="81">
+        <v>32269.91</v>
+      </c>
+      <c r="H191" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I191" s="82">
+        <v>43346</v>
+      </c>
+      <c r="J191" s="81">
+        <v>1</v>
+      </c>
+      <c r="K191" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L191" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M191" s="81">
+        <v>5.8027397260273972</v>
+      </c>
+      <c r="N191" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="80" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C192" s="81" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D192" s="81" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="E192" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F192" s="81" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G192" s="81">
+        <v>118442.54</v>
+      </c>
+      <c r="H192" s="81" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I192" s="82">
+        <v>44193</v>
+      </c>
+      <c r="J192" s="81">
+        <v>1</v>
+      </c>
+      <c r="K192" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L192" s="81" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M192" s="81">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N192" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="80" t="str">
+        <v>SQ03321</v>
+      </c>
+      <c r="C193" s="81" t="str">
+        <v>Gradey</v>
+      </c>
+      <c r="D193" s="81" t="str">
+        <v>Litton</v>
+      </c>
+      <c r="E193" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F193" s="81" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G193" s="81">
+        <v>68887.839999999997</v>
+      </c>
+      <c r="H193" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I193" s="82">
+        <v>43297</v>
+      </c>
+      <c r="J193" s="81">
+        <v>1</v>
+      </c>
+      <c r="K193" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L193" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M193" s="81">
+        <v>5.9369863013698634</v>
+      </c>
+      <c r="N193" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="80" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C194" s="81" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D194" s="81" t="str">
+        <v>McMurty</v>
+      </c>
+      <c r="E194" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F194" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G194" s="81">
+        <v>66865.490000000005</v>
+      </c>
+      <c r="H194" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I194" s="82">
+        <v>43514</v>
+      </c>
+      <c r="J194" s="81">
+        <v>1</v>
+      </c>
+      <c r="K194" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L194" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M194" s="81">
+        <v>5.3424657534246576</v>
+      </c>
+      <c r="N194" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="80" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="C195" s="81" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="D195" s="81" t="str">
+        <v>McMurty</v>
+      </c>
+      <c r="E195" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F195" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G195" s="81">
+        <v>66865.490000000005</v>
+      </c>
+      <c r="H195" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I195" s="82">
+        <v>43514</v>
+      </c>
+      <c r="J195" s="81">
+        <v>1</v>
+      </c>
+      <c r="K195" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L195" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M195" s="81">
+        <v>5.3424657534246576</v>
+      </c>
+      <c r="N195" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="80" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C196" s="81" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D196" s="81" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E196" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F196" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G196" s="81">
+        <v>102129.37</v>
+      </c>
+      <c r="H196" s="81" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I196" s="82">
+        <v>44396</v>
+      </c>
+      <c r="J196" s="81">
+        <v>1</v>
+      </c>
+      <c r="K196" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L196" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M196" s="81">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N196" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="80" t="str">
+        <v>SQ03546</v>
+      </c>
+      <c r="C197" s="81" t="str">
+        <v>Amlankusum</v>
+      </c>
+      <c r="D197" s="81" t="str">
+        <v>Rajabhushan</v>
+      </c>
+      <c r="E197" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F197" s="81" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G197" s="81">
+        <v>75733.740000000005</v>
+      </c>
+      <c r="H197" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I197" s="82">
+        <v>44382</v>
+      </c>
+      <c r="J197" s="81">
+        <v>1</v>
+      </c>
+      <c r="K197" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L197" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M197" s="81">
+        <v>2.9643835616438357</v>
+      </c>
+      <c r="N197" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="80" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C198" s="81" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D198" s="81" t="str">
+        <v>Artis</v>
+      </c>
+      <c r="E198" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F198" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G198" s="81">
+        <v>78020.39</v>
+      </c>
+      <c r="H198" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I198" s="82">
+        <v>43899</v>
+      </c>
+      <c r="J198" s="81">
+        <v>1</v>
+      </c>
+      <c r="K198" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L198" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M198" s="81">
+        <v>4.2876712328767121</v>
+      </c>
+      <c r="N198" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B199" s="80" t="str">
+        <v>SQ03626</v>
+      </c>
+      <c r="C199" s="81" t="str">
+        <v>Krishnakanta</v>
+      </c>
+      <c r="D199" s="81" t="str">
+        <v>Vellanki</v>
+      </c>
+      <c r="E199" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F199" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G199" s="81">
+        <v>95677.9</v>
+      </c>
+      <c r="H199" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I199" s="82">
+        <v>44396</v>
+      </c>
+      <c r="J199" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K199" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L199" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M199" s="81">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N199" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="80" t="str">
+        <v>SQ04613</v>
+      </c>
+      <c r="C200" s="81" t="str">
+        <v>Sarojini</v>
+      </c>
+      <c r="D200" s="81" t="str">
+        <v>Naueshwara</v>
+      </c>
+      <c r="E200" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F200" s="81" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G200" s="81">
+        <v>85264.38</v>
+      </c>
+      <c r="H200" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I200" s="82">
+        <v>43220</v>
+      </c>
+      <c r="J200" s="81">
+        <v>1</v>
+      </c>
+      <c r="K200" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L200" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M200" s="81">
+        <v>6.1479452054794521</v>
+      </c>
+      <c r="N200" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="80" t="str">
+        <v>SQ04960</v>
+      </c>
+      <c r="C201" s="81" t="str">
+        <v>Shubhra</v>
+      </c>
+      <c r="D201" s="81" t="str">
+        <v>Potla</v>
+      </c>
+      <c r="E201" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F201" s="81" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G201" s="81">
+        <v>71924.850000000006</v>
+      </c>
+      <c r="H201" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I201" s="82">
+        <v>43822</v>
+      </c>
+      <c r="J201" s="81">
+        <v>1</v>
+      </c>
+      <c r="K201" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L201" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M201" s="81">
+        <v>4.4986301369863018</v>
+      </c>
+      <c r="N201" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B202" s="80" t="str">
+        <v>TN00083</v>
+      </c>
+      <c r="C202" s="81" t="str">
+        <v>Chandana</v>
+      </c>
+      <c r="D202" s="81" t="str">
+        <v>Sannidhi</v>
+      </c>
+      <c r="E202" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F202" s="81" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G202" s="81">
+        <v>61688.77</v>
+      </c>
+      <c r="H202" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I202" s="82">
+        <v>43346</v>
+      </c>
+      <c r="J202" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="K202" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L202" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M202" s="81">
+        <v>5.8027397260273972</v>
+      </c>
+      <c r="N202" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B203" s="80" t="str">
+        <v>TN00182</v>
+      </c>
+      <c r="C203" s="81" t="str">
+        <v>Camilla</v>
+      </c>
+      <c r="D203" s="81" t="str">
+        <v>Castle</v>
+      </c>
+      <c r="E203" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F203" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G203" s="81">
+        <v>75475.929999999993</v>
+      </c>
+      <c r="H203" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I203" s="82">
+        <v>43794</v>
+      </c>
+      <c r="J203" s="81">
+        <v>1</v>
+      </c>
+      <c r="K203" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L203" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M203" s="81">
+        <v>4.5753424657534243</v>
+      </c>
+      <c r="N203" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="80" t="str">
+        <v>TN00890</v>
+      </c>
+      <c r="C204" s="81" t="str">
+        <v>Mayur</v>
+      </c>
+      <c r="D204" s="81" t="str">
+        <v>Kousika</v>
+      </c>
+      <c r="E204" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F204" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G204" s="81">
+        <v>71570.990000000005</v>
+      </c>
+      <c r="H204" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I204" s="82">
+        <v>44249</v>
+      </c>
+      <c r="J204" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="K204" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L204" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M204" s="81">
+        <v>3.3287671232876712</v>
+      </c>
+      <c r="N204" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B205" s="80" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C205" s="81" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D205" s="81" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="E205" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F205" s="81" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G205" s="81">
+        <v>114425.19</v>
+      </c>
+      <c r="H205" s="81" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I205" s="82">
+        <v>43857</v>
+      </c>
+      <c r="J205" s="81">
+        <v>1</v>
+      </c>
+      <c r="K205" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L205" s="81" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M205" s="81">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="N205" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="80" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C206" s="81" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D206" s="81" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E206" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F206" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G206" s="81">
+        <v>68795.48</v>
+      </c>
+      <c r="H206" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I206" s="82">
+        <v>44277</v>
+      </c>
+      <c r="J206" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="K206" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L206" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M206" s="81">
+        <v>3.2520547945205478</v>
+      </c>
+      <c r="N206" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="80" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C207" s="81" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D207" s="81" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E207" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F207" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G207" s="81">
+        <v>68795.48</v>
+      </c>
+      <c r="H207" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I207" s="82">
+        <v>44277</v>
+      </c>
+      <c r="J207" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="K207" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L207" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M207" s="81">
+        <v>3.2520547945205478</v>
+      </c>
+      <c r="N207" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="80" t="str">
+        <v>TN02749</v>
+      </c>
+      <c r="C208" s="81" t="str">
+        <v>Parasuramudu</v>
+      </c>
+      <c r="D208" s="81" t="str">
+        <v>Jamakayala</v>
+      </c>
+      <c r="E208" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F208" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G208" s="81">
+        <v>57002.02</v>
+      </c>
+      <c r="H208" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I208" s="82">
+        <v>43192</v>
+      </c>
+      <c r="J208" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="K208" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L208" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M208" s="81">
+        <v>6.2246575342465755</v>
+      </c>
+      <c r="N208" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="80" t="str">
+        <v>TN02883</v>
+      </c>
+      <c r="C209" s="81" t="str">
+        <v>John</v>
+      </c>
+      <c r="D209" s="81" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="E209" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F209" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G209" s="81">
+        <v>84762.76</v>
+      </c>
+      <c r="H209" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I209" s="82">
+        <v>43332</v>
+      </c>
+      <c r="J209" s="81">
+        <v>1</v>
+      </c>
+      <c r="K209" s="81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L209" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M209" s="81">
+        <v>5.8410958904109593</v>
+      </c>
+      <c r="N209" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="80" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C210" s="81" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D210" s="81" t="str">
+        <v>Wolverson</v>
+      </c>
+      <c r="E210" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F210" s="81" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G210" s="81">
+        <v>99683.67</v>
+      </c>
+      <c r="H210" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I210" s="82">
+        <v>43500</v>
+      </c>
+      <c r="J210" s="81">
+        <v>1</v>
+      </c>
+      <c r="K210" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L210" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M210" s="81">
+        <v>5.3808219178082188</v>
+      </c>
+      <c r="N210" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="80" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="C211" s="81" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="D211" s="81" t="str">
+        <v>Wolverson</v>
+      </c>
+      <c r="E211" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F211" s="81" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G211" s="81">
+        <v>99683.67</v>
+      </c>
+      <c r="H211" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I211" s="82">
+        <v>43500</v>
+      </c>
+      <c r="J211" s="81">
+        <v>1</v>
+      </c>
+      <c r="K211" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L211" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M211" s="81">
+        <v>5.3808219178082188</v>
+      </c>
+      <c r="N211" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="80" t="str">
+        <v>TN04067</v>
+      </c>
+      <c r="C212" s="81" t="str">
+        <v>Lea</v>
+      </c>
+      <c r="D212" s="81" t="str">
+        <v>Chaplin</v>
+      </c>
+      <c r="E212" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F212" s="81" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G212" s="81">
+        <v>73488.679999999993</v>
+      </c>
+      <c r="H212" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I212" s="82">
+        <v>43570</v>
+      </c>
+      <c r="J212" s="81">
+        <v>1</v>
+      </c>
+      <c r="K212" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L212" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M212" s="81">
+        <v>5.1890410958904107</v>
+      </c>
+      <c r="N212" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="80" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="C213" s="81" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="D213" s="81" t="str">
+        <v>Label</v>
+      </c>
+      <c r="E213" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F213" s="81" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G213" s="81">
+        <v>92704.48</v>
+      </c>
+      <c r="H213" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I213" s="82">
+        <v>43430</v>
+      </c>
+      <c r="J213" s="81">
+        <v>1</v>
+      </c>
+      <c r="K213" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L213" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M213" s="81">
+        <v>5.5726027397260278</v>
+      </c>
+      <c r="N213" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B214" s="80" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C214" s="81" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D214" s="81" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="E214" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F214" s="81" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G214" s="81">
+        <v>100371.31</v>
+      </c>
+      <c r="H214" s="81" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I214" s="82">
+        <v>44067</v>
+      </c>
+      <c r="J214" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="K214" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L214" s="81" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M214" s="81">
+        <v>3.8273972602739725</v>
+      </c>
+      <c r="N214" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B215" s="80" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="C215" s="81" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="D215" s="81" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="E215" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F215" s="81" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G215" s="81">
+        <v>104038.9</v>
+      </c>
+      <c r="H215" s="81" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I215" s="82">
+        <v>43815</v>
+      </c>
+      <c r="J215" s="81">
+        <v>1</v>
+      </c>
+      <c r="K215" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L215" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M215" s="81">
+        <v>4.5178082191780824</v>
+      </c>
+      <c r="N215" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="80" t="str">
+        <v>VT00578</v>
+      </c>
+      <c r="C216" s="81" t="str">
+        <v>Magnum</v>
+      </c>
+      <c r="D216" s="81" t="str">
+        <v>Locksley</v>
+      </c>
+      <c r="E216" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F216" s="81" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G216" s="81">
+        <v>42314.39</v>
+      </c>
+      <c r="H216" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I216" s="82">
+        <v>44487</v>
+      </c>
+      <c r="J216" s="81">
+        <v>1</v>
+      </c>
+      <c r="K216" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L216" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M216" s="81">
+        <v>2.6767123287671235</v>
+      </c>
+      <c r="N216" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="80" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C217" s="81" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D217" s="81" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="E217" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F217" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G217" s="81">
+        <v>84598.88</v>
+      </c>
+      <c r="H217" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I217" s="82">
+        <v>44116</v>
+      </c>
+      <c r="J217" s="81">
+        <v>1</v>
+      </c>
+      <c r="K217" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L217" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M217" s="81">
+        <v>3.6931506849315068</v>
+      </c>
+      <c r="N217" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B218" s="80" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C218" s="81" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D218" s="81" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="E218" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F218" s="81" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G218" s="81">
+        <v>84598.88</v>
+      </c>
+      <c r="H218" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I218" s="82">
+        <v>44116</v>
+      </c>
+      <c r="J218" s="81">
+        <v>1</v>
+      </c>
+      <c r="K218" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L218" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M218" s="81">
+        <v>3.6931506849315068</v>
+      </c>
+      <c r="N218" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B219" s="80" t="str">
+        <v>VT00740</v>
+      </c>
+      <c r="C219" s="81" t="str">
+        <v>Chitrasen</v>
+      </c>
+      <c r="D219" s="81" t="str">
+        <v>Laul</v>
+      </c>
+      <c r="E219" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F219" s="81" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G219" s="81">
+        <v>46751.7</v>
+      </c>
+      <c r="H219" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I219" s="82">
+        <v>43843</v>
+      </c>
+      <c r="J219" s="81">
+        <v>1</v>
+      </c>
+      <c r="K219" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L219" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M219" s="81">
+        <v>4.441095890410959</v>
+      </c>
+      <c r="N219" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="80" t="str">
+        <v>VT01249</v>
+      </c>
+      <c r="C220" s="81" t="str">
+        <v>Brendan</v>
+      </c>
+      <c r="D220" s="81" t="str">
+        <v>Edgeller</v>
+      </c>
+      <c r="E220" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F220" s="81" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G220" s="81">
+        <v>31042.51</v>
+      </c>
+      <c r="H220" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I220" s="82">
+        <v>44473</v>
+      </c>
+      <c r="J220" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K220" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L220" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M220" s="81">
+        <v>2.7150684931506848</v>
+      </c>
+      <c r="N220" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B221" s="80" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C221" s="81" t="str">
+        <v>Dhruv</v>
+      </c>
+      <c r="D221" s="81" t="str">
+        <v>Manjunath</v>
+      </c>
+      <c r="E221" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F221" s="81" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G221" s="81">
+        <v>76303.820000000007</v>
+      </c>
+      <c r="H221" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I221" s="82">
+        <v>43458</v>
+      </c>
+      <c r="J221" s="81">
+        <v>1</v>
+      </c>
+      <c r="K221" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L221" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M221" s="81">
+        <v>5.4958904109589044</v>
+      </c>
+      <c r="N221" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="80" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="C222" s="81" t="str">
+        <v>Kunja</v>
+      </c>
+      <c r="D222" s="81" t="str">
+        <v>Prashanta</v>
+      </c>
+      <c r="E222" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F222" s="81" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G222" s="81">
+        <v>76303.820000000007</v>
+      </c>
+      <c r="H222" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I222" s="82">
+        <v>43458</v>
+      </c>
+      <c r="J222" s="81">
+        <v>1</v>
+      </c>
+      <c r="K222" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L222" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M222" s="81">
+        <v>5.4958904109589044</v>
+      </c>
+      <c r="N222" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="80" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="C223" s="81" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="D223" s="81" t="str">
+        <v>Linford</v>
+      </c>
+      <c r="E223" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F223" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G223" s="81">
+        <v>93128.34</v>
+      </c>
+      <c r="H223" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I223" s="82">
+        <v>43164</v>
+      </c>
+      <c r="J223" s="81">
+        <v>1</v>
+      </c>
+      <c r="K223" s="81" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L223" s="81" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M223" s="81">
+        <v>6.3013698630136989</v>
+      </c>
+      <c r="N223" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="80" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C224" s="81" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D224" s="81" t="str">
+        <v>Jewis</v>
+      </c>
+      <c r="E224" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F224" s="81" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G224" s="81">
+        <v>71823.56</v>
+      </c>
+      <c r="H224" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I224" s="82">
+        <v>43374</v>
+      </c>
+      <c r="J224" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K224" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L224" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M224" s="81">
+        <v>5.7260273972602738</v>
+      </c>
+      <c r="N224" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B225" s="80" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="C225" s="81" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="D225" s="81" t="str">
+        <v>Jewis</v>
+      </c>
+      <c r="E225" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F225" s="81" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G225" s="81">
+        <v>71823.56</v>
+      </c>
+      <c r="H225" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I225" s="82">
+        <v>43374</v>
+      </c>
+      <c r="J225" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K225" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L225" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M225" s="81">
+        <v>5.7260273972602738</v>
+      </c>
+      <c r="N225" s="83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B226" s="80" t="str">
+        <v>VT02532</v>
+      </c>
+      <c r="C226" s="81" t="str">
+        <v>Adey</v>
+      </c>
+      <c r="D226" s="81" t="str">
+        <v>Ryal</v>
+      </c>
+      <c r="E226" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F226" s="81" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G226" s="81">
+        <v>32496.880000000001</v>
+      </c>
+      <c r="H226" s="81" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I226" s="82">
+        <v>43234</v>
+      </c>
+      <c r="J226" s="81">
+        <v>1</v>
+      </c>
+      <c r="K226" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L226" s="81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M226" s="81">
+        <v>6.1095890410958908</v>
+      </c>
+      <c r="N226" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B227" s="80" t="str">
+        <v>VT03701</v>
+      </c>
+      <c r="C227" s="81" t="str">
+        <v>Narois</v>
+      </c>
+      <c r="D227" s="81" t="str">
+        <v>Motiwala</v>
+      </c>
+      <c r="E227" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F227" s="81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G227" s="81">
+        <v>89829.33</v>
+      </c>
+      <c r="H227" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I227" s="82">
+        <v>43794</v>
+      </c>
+      <c r="J227" s="81">
+        <v>1</v>
+      </c>
+      <c r="K227" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L227" s="81" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M227" s="81">
+        <v>4.5753424657534243</v>
+      </c>
+      <c r="N227" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B228" s="80" t="str">
+        <v>VT03988</v>
+      </c>
+      <c r="C228" s="81" t="str">
+        <v>Venkat</v>
+      </c>
+      <c r="D228" s="81" t="str">
+        <v>Kodi</v>
+      </c>
+      <c r="E228" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F228" s="81" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G228" s="81">
+        <v>58935.92</v>
+      </c>
+      <c r="H228" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I228" s="82">
+        <v>43717</v>
+      </c>
+      <c r="J228" s="81">
+        <v>1</v>
+      </c>
+      <c r="K228" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L228" s="81" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M228" s="81">
+        <v>4.7863013698630139</v>
+      </c>
+      <c r="N228" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B229" s="80" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="C229" s="81" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="D229" s="81" t="str">
+        <v>Biles</v>
+      </c>
+      <c r="E229" s="81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F229" s="81" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G229" s="81">
+        <v>58744.17</v>
+      </c>
+      <c r="H229" s="81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I229" s="82">
+        <v>43171</v>
+      </c>
+      <c r="J229" s="81">
+        <v>1</v>
+      </c>
+      <c r="K229" s="81" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L229" s="81" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M229" s="81">
+        <v>6.2821917808219174</v>
+      </c>
+      <c r="N229" s="83" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B230" s="84" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="C230" s="85" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="D230" s="85" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="E230" s="85" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F230" s="85" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G230" s="85">
+        <v>106665.67</v>
+      </c>
+      <c r="H230" s="85" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I230" s="86">
+        <v>43311</v>
+      </c>
+      <c r="J230" s="85">
+        <v>1</v>
+      </c>
+      <c r="K230" s="85" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L230" s="85" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M230" s="85">
+        <v>5.8986301369863012</v>
+      </c>
+      <c r="N230" s="87" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I240" s="6"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.3">
@@ -26701,11 +29077,595 @@
       <c r="I402" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B132:C132"/>
     <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2FA2C-8D49-4E03-9F0A-C46BA338673C}">
+  <dimension ref="B2:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="55" t="s">
+        <v>823</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55">
+        <f>COUNTA(staff[Emp ID])</f>
+        <v>260</v>
+      </c>
+      <c r="E4" s="96">
+        <f>AVERAGE(staff[Salary])</f>
+        <v>73861.325230769246</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="96">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+      <c r="I4" t="e">
+        <f>MEDIAN(B6:B18)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98" t="s">
+        <v>768</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>770</v>
+      </c>
+      <c r="F6" s="112" t="s">
+        <v>822</v>
+      </c>
+      <c r="G6" s="112"/>
+      <c r="H6" s="99" t="s">
+        <v>779</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="89" t="str" cm="1">
+        <f t="array" ref="B7:B18">_xlfn._xlws.SORT((_xlfn.UNIQUE(staff[Department])))</f>
+        <v>Accounting</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" cm="1">
+        <f t="array" ref="D7:D18">COUNTIFS(staff[Department],_xlfn.ANCHORARRAY(B7))</f>
+        <v>26</v>
+      </c>
+      <c r="E7" s="104" cm="1">
+        <f t="array" ref="E7:E18">AVERAGEIFS(staff[Salary],staff[Department],_xlfn.ANCHORARRAY(B7))</f>
+        <v>69806.945769230777</v>
+      </c>
+      <c r="F7" s="106" cm="1">
+        <f t="array" ref="F7:F18">_xlfn.ANCHORARRAY(E7)-E4</f>
+        <v>-4054.3794615384686</v>
+      </c>
+      <c r="G7" s="109" cm="1">
+        <f t="array" ref="G7:G18">_xlfn.ANCHORARRAY(E7)-E4</f>
+        <v>-4054.3794615384686</v>
+      </c>
+      <c r="H7" s="102" cm="1">
+        <f t="array" ref="H7:H18">_xlfn.MAXIFS(staff[Salary],staff[Department],_xlfn.ANCHORARRAY(B7))</f>
+        <v>119022.49</v>
+      </c>
+      <c r="I7" s="113" cm="1">
+        <f t="array" ref="I7">MEDIAN(_xlfn._xlws.FILTER(staff[Salary], staff[Department]=B7))</f>
+        <v>69025.614999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="89" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90">
+        <v>26</v>
+      </c>
+      <c r="E8" s="104">
+        <v>79781.805769230778</v>
+      </c>
+      <c r="F8" s="107">
+        <v>5920.480538461532</v>
+      </c>
+      <c r="G8" s="110">
+        <v>5920.480538461532</v>
+      </c>
+      <c r="H8" s="102">
+        <v>110042.37</v>
+      </c>
+      <c r="I8" s="113" cm="1">
+        <f t="array" ref="I8">MEDIAN(staff[Salary],staff[Department]=B8)</f>
+        <v>73360.38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="89" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90">
+        <v>26</v>
+      </c>
+      <c r="E9" s="104">
+        <v>81976.441923076913</v>
+      </c>
+      <c r="F9" s="107">
+        <v>8115.1166923076671</v>
+      </c>
+      <c r="G9" s="110">
+        <v>8115.1166923076671</v>
+      </c>
+      <c r="H9" s="102">
+        <v>120000</v>
+      </c>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="89" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90">
+        <v>22</v>
+      </c>
+      <c r="E10" s="104">
+        <v>73109.377727272746</v>
+      </c>
+      <c r="F10" s="107">
+        <v>-751.94750349649985</v>
+      </c>
+      <c r="G10" s="110">
+        <v>-751.94750349649985</v>
+      </c>
+      <c r="H10" s="102">
+        <v>103494.94</v>
+      </c>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="89" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90">
+        <v>21</v>
+      </c>
+      <c r="E11" s="104">
+        <v>67242.51761904762</v>
+      </c>
+      <c r="F11" s="107">
+        <v>-6618.807611721626</v>
+      </c>
+      <c r="G11" s="110">
+        <v>-6618.807611721626</v>
+      </c>
+      <c r="H11" s="102">
+        <v>113747.56</v>
+      </c>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="89" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90">
+        <v>12</v>
+      </c>
+      <c r="E12" s="104">
+        <v>64441.299999999996</v>
+      </c>
+      <c r="F12" s="107">
+        <v>-9420.0252307692499</v>
+      </c>
+      <c r="G12" s="110">
+        <v>-9420.0252307692499</v>
+      </c>
+      <c r="H12" s="102">
+        <v>104903.79</v>
+      </c>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="89" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90">
+        <v>29</v>
+      </c>
+      <c r="E13" s="104">
+        <v>75179.064482758593</v>
+      </c>
+      <c r="F13" s="107">
+        <v>1317.7392519893474</v>
+      </c>
+      <c r="G13" s="110">
+        <v>1317.7392519893474</v>
+      </c>
+      <c r="H13" s="102">
+        <v>115191.38</v>
+      </c>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="89" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90">
+        <v>18</v>
+      </c>
+      <c r="E14" s="104">
+        <v>66910.765555555554</v>
+      </c>
+      <c r="F14" s="107">
+        <v>-6950.5596752136917</v>
+      </c>
+      <c r="G14" s="110">
+        <v>-6950.5596752136917</v>
+      </c>
+      <c r="H14" s="102">
+        <v>99683.67</v>
+      </c>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="89" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90">
+        <v>18</v>
+      </c>
+      <c r="E15" s="104">
+        <v>71897.095555555556</v>
+      </c>
+      <c r="F15" s="107">
+        <v>-1964.2296752136899</v>
+      </c>
+      <c r="G15" s="110">
+        <v>-1964.2296752136899</v>
+      </c>
+      <c r="H15" s="102">
+        <v>102129.37</v>
+      </c>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="89" t="str">
+        <v>Services</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90">
+        <v>21</v>
+      </c>
+      <c r="E16" s="104">
+        <v>74673.974761904756</v>
+      </c>
+      <c r="F16" s="107">
+        <v>812.64953113551019</v>
+      </c>
+      <c r="G16" s="110">
+        <v>812.64953113551019</v>
+      </c>
+      <c r="H16" s="102">
+        <v>120000</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="89" t="str">
+        <v>Support</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90">
+        <v>17</v>
+      </c>
+      <c r="E17" s="104">
+        <v>66432.455882352937</v>
+      </c>
+      <c r="F17" s="107">
+        <v>-7428.8693484163086</v>
+      </c>
+      <c r="G17" s="110">
+        <v>-7428.8693484163086</v>
+      </c>
+      <c r="H17" s="102">
+        <v>104802.63</v>
+      </c>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="92" t="str">
+        <v>Training</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93">
+        <v>24</v>
+      </c>
+      <c r="E18" s="105">
+        <v>83883.965000000011</v>
+      </c>
+      <c r="F18" s="108">
+        <v>10022.639769230766</v>
+      </c>
+      <c r="G18" s="111">
+        <v>10022.639769230766</v>
+      </c>
+      <c r="H18" s="103">
+        <v>116767.63</v>
+      </c>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90" cm="1">
+        <f t="array" ref="D21:D46">_xlfn._xlws.SORT((_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B7)))</f>
+        <v>35936.31</v>
+      </c>
+      <c r="E21" s="101">
+        <f>MEDIAN(D21:D46)</f>
+        <v>69025.614999999991</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="90">
+        <v>36547.58</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="90">
+        <v>36547.58</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="90">
+        <v>38825.18</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="90">
+        <v>44845.33</v>
+      </c>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>49915.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>52246.29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>52270.22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>52963.65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>57419.35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>57925.91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>67633.850000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>68887.839999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>69163.39</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>69163.39</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>71823.56</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>71823.56</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>76303.820000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>76303.820000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>91645.04</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>95954.02</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>98012.63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>102515.81</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>107107.6</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>114177.23</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>119022.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:F18">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD451B01-6A4C-4BCB-B0D8-44F6136C3CAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD451B01-6A4C-4BCB-B0D8-44F6136C3CAD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:F18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E989EB-FE51-4D51-8180-D8B79D4A6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37385BA8-B2CB-4E9F-A446-81BE8037F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="826">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2736,6 +2736,9 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>Female Ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -2749,7 +2752,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2857,8 +2860,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2930,8 +2941,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3074,14 +3097,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3204,41 +3241,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3246,16 +3271,36 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -5202,7 +5247,7 @@
   <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5214,7 +5259,7 @@
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" customWidth="1"/>
@@ -15944,7 +15989,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19555,11 +19600,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="108" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19578,11 +19623,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="108" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19601,11 +19646,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="108" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19699,11 +19744,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="108" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -20710,10 +20755,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="111" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="111"/>
     </row>
     <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
@@ -20749,11 +20794,11 @@
       <c r="D12" s="70"/>
     </row>
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="109" t="s">
         <v>818</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="str" cm="1">
@@ -25431,10 +25476,10 @@
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="110" t="s">
         <v>817</v>
       </c>
-      <c r="C132" s="74"/>
+      <c r="C132" s="110"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" t="str" cm="1">
@@ -25725,10 +25770,10 @@
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B142" s="74" t="s">
+      <c r="B142" s="110" t="s">
         <v>816</v>
       </c>
-      <c r="C142" s="74"/>
+      <c r="C142" s="110"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" t="str" cm="1">
@@ -26013,2550 +26058,2550 @@
       <c r="I168" s="6"/>
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B169" s="76" t="str" cm="1">
+      <c r="B169" s="73" t="str" cm="1">
         <f t="array" ref="B169:N230">_xlfn._xlws.FILTER(staff[], (staff[Gender]="Female") * (WEEKDAY(staff[Start Date])=2))</f>
         <v>PR00007</v>
       </c>
-      <c r="C169" s="77" t="str">
+      <c r="C169" s="74" t="str">
         <v>Torrance</v>
       </c>
-      <c r="D169" s="77" t="str">
+      <c r="D169" s="74" t="str">
         <v>Collier</v>
       </c>
-      <c r="E169" s="77" t="str">
+      <c r="E169" s="74" t="str">
         <v>Female</v>
       </c>
-      <c r="F169" s="77" t="str">
+      <c r="F169" s="74" t="str">
         <v>Training</v>
       </c>
-      <c r="G169" s="77">
+      <c r="G169" s="74">
         <v>96135.75</v>
       </c>
-      <c r="H169" s="77" t="str">
+      <c r="H169" s="74" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I169" s="78">
+      <c r="I169" s="75">
         <v>44025</v>
       </c>
-      <c r="J169" s="77">
+      <c r="J169" s="74">
         <v>0.3</v>
       </c>
-      <c r="K169" s="77" t="str">
+      <c r="K169" s="74" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L169" s="77" t="str">
+      <c r="L169" s="74" t="str">
         <v>Wellington, New Zealand</v>
       </c>
-      <c r="M169" s="77">
+      <c r="M169" s="74">
         <v>3.9424657534246577</v>
       </c>
-      <c r="N169" s="79" t="str">
+      <c r="N169" s="76" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B170" s="80" t="str">
+      <c r="B170" s="77" t="str">
         <v>PR00095</v>
       </c>
-      <c r="C170" s="81" t="str">
+      <c r="C170" t="str">
         <v>Devrat</v>
       </c>
-      <c r="D170" s="81" t="str">
+      <c r="D170" t="str">
         <v>Damarsingh</v>
       </c>
-      <c r="E170" s="81" t="str">
+      <c r="E170" t="str">
         <v>Female</v>
       </c>
-      <c r="F170" s="81" t="str">
+      <c r="F170" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G170" s="81">
+      <c r="G170">
         <v>70649.460000000006</v>
       </c>
-      <c r="H170" s="81" t="str">
+      <c r="H170" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I170" s="82">
+      <c r="I170" s="6">
         <v>43843</v>
       </c>
-      <c r="J170" s="81">
-        <v>1</v>
-      </c>
-      <c r="K170" s="81" t="str">
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L170" s="81" t="str">
+      <c r="L170" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M170" s="81">
+      <c r="M170">
         <v>4.441095890410959</v>
       </c>
-      <c r="N170" s="83" t="str">
+      <c r="N170" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B171" s="80" t="str">
+      <c r="B171" s="77" t="str">
         <v>PR00113</v>
       </c>
-      <c r="C171" s="81" t="str">
+      <c r="C171" t="str">
         <v>Van</v>
       </c>
-      <c r="D171" s="81" t="str">
+      <c r="D171" t="str">
         <v>Tuxwell</v>
       </c>
-      <c r="E171" s="81" t="str">
+      <c r="E171" t="str">
         <v>Female</v>
       </c>
-      <c r="F171" s="81" t="str">
+      <c r="F171" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G171" s="81">
+      <c r="G171">
         <v>80695.740000000005</v>
       </c>
-      <c r="H171" s="81" t="str">
+      <c r="H171" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I171" s="82">
+      <c r="I171" s="6">
         <v>43360</v>
       </c>
-      <c r="J171" s="81">
-        <v>1</v>
-      </c>
-      <c r="K171" s="81" t="str">
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L171" s="81" t="str">
+      <c r="L171" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M171" s="81">
+      <c r="M171">
         <v>5.7643835616438359</v>
       </c>
-      <c r="N171" s="83" t="str">
+      <c r="N171" s="78" t="str">
         <v>Full time</v>
       </c>
-      <c r="Q171" s="75" t="s">
+      <c r="Q171" s="72" t="s">
         <v>820</v>
       </c>
-      <c r="R171" s="75"/>
-      <c r="S171" s="75"/>
+      <c r="R171" s="72"/>
+      <c r="S171" s="72"/>
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B172" s="80" t="str">
+      <c r="B172" s="77" t="str">
         <v>PR00113</v>
       </c>
-      <c r="C172" s="81" t="str">
+      <c r="C172" t="str">
         <v>Van</v>
       </c>
-      <c r="D172" s="81" t="str">
+      <c r="D172" t="str">
         <v>Tuxwell</v>
       </c>
-      <c r="E172" s="81" t="str">
+      <c r="E172" t="str">
         <v>Female</v>
       </c>
-      <c r="F172" s="81" t="str">
+      <c r="F172" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G172" s="81">
+      <c r="G172">
         <v>80695.740000000005</v>
       </c>
-      <c r="H172" s="81" t="str">
+      <c r="H172" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I172" s="82">
+      <c r="I172" s="6">
         <v>43360</v>
       </c>
-      <c r="J172" s="81">
-        <v>1</v>
-      </c>
-      <c r="K172" s="81" t="str">
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L172" s="81" t="str">
+      <c r="L172" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M172" s="81">
+      <c r="M172">
         <v>5.7643835616438359</v>
       </c>
-      <c r="N172" s="83" t="str">
+      <c r="N172" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B173" s="80" t="str">
+      <c r="B173" s="77" t="str">
         <v>PR00576</v>
       </c>
-      <c r="C173" s="81" t="str">
+      <c r="C173" t="str">
         <v>Lalitchandra</v>
       </c>
-      <c r="D173" s="81" t="str">
+      <c r="D173" t="str">
         <v>Vadali</v>
       </c>
-      <c r="E173" s="81" t="str">
+      <c r="E173" t="str">
         <v>Female</v>
       </c>
-      <c r="F173" s="81" t="str">
+      <c r="F173" t="str">
         <v>Legal</v>
       </c>
-      <c r="G173" s="81">
+      <c r="G173">
         <v>63705.4</v>
       </c>
-      <c r="H173" s="81" t="str">
+      <c r="H173" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I173" s="82">
+      <c r="I173" s="6">
         <v>43682</v>
       </c>
-      <c r="J173" s="81">
-        <v>1</v>
-      </c>
-      <c r="K173" s="81" t="str">
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L173" s="81" t="str">
+      <c r="L173" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M173" s="81">
+      <c r="M173">
         <v>4.882191780821918</v>
       </c>
-      <c r="N173" s="83" t="str">
+      <c r="N173" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B174" s="80" t="str">
+      <c r="B174" s="77" t="str">
         <v>PR00916</v>
       </c>
-      <c r="C174" s="81" t="str">
+      <c r="C174" t="str">
         <v>Inger</v>
       </c>
-      <c r="D174" s="81" t="str">
+      <c r="D174" t="str">
         <v>Chapelhow</v>
       </c>
-      <c r="E174" s="81" t="str">
+      <c r="E174" t="str">
         <v>Female</v>
       </c>
-      <c r="F174" s="81" t="str">
+      <c r="F174" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="G174" s="81">
+      <c r="G174">
         <v>84309.95</v>
       </c>
-      <c r="H174" s="81" t="str">
+      <c r="H174" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I174" s="82">
+      <c r="I174" s="6">
         <v>44501</v>
       </c>
-      <c r="J174" s="81">
-        <v>1</v>
-      </c>
-      <c r="K174" s="81" t="str">
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L174" s="81" t="str">
+      <c r="L174" t="str">
         <v>Remote</v>
       </c>
-      <c r="M174" s="81">
+      <c r="M174">
         <v>2.6383561643835618</v>
       </c>
-      <c r="N174" s="83" t="str">
+      <c r="N174" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B175" s="80" t="str">
+      <c r="B175" s="77" t="str">
         <v>PR01383</v>
       </c>
-      <c r="C175" s="81" t="str">
+      <c r="C175" t="str">
         <v>Addi</v>
       </c>
-      <c r="D175" s="81" t="str">
+      <c r="D175" t="str">
         <v>Studdeard</v>
       </c>
-      <c r="E175" s="81" t="str">
+      <c r="E175" t="str">
         <v>Female</v>
       </c>
-      <c r="F175" s="81" t="str">
+      <c r="F175" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G175" s="81">
+      <c r="G175">
         <v>72502.61</v>
       </c>
-      <c r="H175" s="81" t="str">
+      <c r="H175" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I175" s="82">
+      <c r="I175" s="6">
         <v>44235</v>
       </c>
-      <c r="J175" s="81">
-        <v>1</v>
-      </c>
-      <c r="K175" s="81" t="str">
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L175" s="81" t="str">
+      <c r="L175" t="str">
         <v>Wellington, New Zealand</v>
       </c>
-      <c r="M175" s="81">
+      <c r="M175">
         <v>3.3671232876712329</v>
       </c>
-      <c r="N175" s="83" t="str">
+      <c r="N175" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B176" s="80" t="str">
+      <c r="B176" s="77" t="str">
         <v>PR02016</v>
       </c>
-      <c r="C176" s="81" t="str">
+      <c r="C176" t="str">
         <v>Iris</v>
       </c>
-      <c r="D176" s="81" t="str">
+      <c r="D176" t="str">
         <v>Wagg</v>
       </c>
-      <c r="E176" s="81" t="str">
+      <c r="E176" t="str">
         <v>Female</v>
       </c>
-      <c r="F176" s="81" t="str">
+      <c r="F176" t="str">
         <v>Engineering</v>
       </c>
-      <c r="G176" s="81">
+      <c r="G176">
         <v>58861.19</v>
       </c>
-      <c r="H176" s="81" t="str">
+      <c r="H176" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I176" s="82">
+      <c r="I176" s="6">
         <v>43654</v>
       </c>
-      <c r="J176" s="81">
-        <v>1</v>
-      </c>
-      <c r="K176" s="81" t="str">
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L176" s="81" t="str">
+      <c r="L176" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M176" s="81">
+      <c r="M176">
         <v>4.9589041095890414</v>
       </c>
-      <c r="N176" s="83" t="str">
+      <c r="N176" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B177" s="80" t="str">
+      <c r="B177" s="77" t="str">
         <v>PR02113</v>
       </c>
-      <c r="C177" s="81" t="str">
+      <c r="C177" t="str">
         <v>Beverie</v>
       </c>
-      <c r="D177" s="81" t="str">
+      <c r="D177" t="str">
         <v>Moffet</v>
       </c>
-      <c r="E177" s="81" t="str">
+      <c r="E177" t="str">
         <v>Female</v>
       </c>
-      <c r="F177" s="81" t="str">
+      <c r="F177" t="str">
         <v>Support</v>
       </c>
-      <c r="G177" s="81">
+      <c r="G177">
         <v>75974.990000000005</v>
       </c>
-      <c r="H177" s="81" t="str">
+      <c r="H177" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I177" s="82">
+      <c r="I177" s="6">
         <v>44172</v>
       </c>
-      <c r="J177" s="81">
-        <v>1</v>
-      </c>
-      <c r="K177" s="81" t="str">
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L177" s="81" t="str">
+      <c r="L177" t="str">
         <v>Remote</v>
       </c>
-      <c r="M177" s="81">
+      <c r="M177">
         <v>3.5397260273972604</v>
       </c>
-      <c r="N177" s="83" t="str">
+      <c r="N177" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B178" s="80" t="str">
+      <c r="B178" s="77" t="str">
         <v>PR02275</v>
       </c>
-      <c r="C178" s="81" t="str">
+      <c r="C178" t="str">
         <v>Louise</v>
       </c>
-      <c r="D178" s="81" t="str">
+      <c r="D178" t="str">
         <v>Lamming</v>
       </c>
-      <c r="E178" s="81" t="str">
+      <c r="E178" t="str">
         <v>Female</v>
       </c>
-      <c r="F178" s="81" t="str">
+      <c r="F178" t="str">
         <v>Sales</v>
       </c>
-      <c r="G178" s="81">
+      <c r="G178">
         <v>41934.71</v>
       </c>
-      <c r="H178" s="81" t="str">
+      <c r="H178" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I178" s="82">
+      <c r="I178" s="6">
         <v>43780</v>
       </c>
-      <c r="J178" s="81">
-        <v>1</v>
-      </c>
-      <c r="K178" s="81" t="str">
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L178" s="81" t="str">
+      <c r="L178" t="str">
         <v>Remote</v>
       </c>
-      <c r="M178" s="81">
+      <c r="M178">
         <v>4.6136986301369864</v>
       </c>
-      <c r="N178" s="83" t="str">
+      <c r="N178" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B179" s="80" t="str">
+      <c r="B179" s="77" t="str">
         <v>PR02436</v>
       </c>
-      <c r="C179" s="81" t="str">
+      <c r="C179" t="str">
         <v>Marmaduke</v>
       </c>
-      <c r="D179" s="81" t="str">
+      <c r="D179" t="str">
         <v>Worssam</v>
       </c>
-      <c r="E179" s="81" t="str">
+      <c r="E179" t="str">
         <v>Female</v>
       </c>
-      <c r="F179" s="81" t="str">
+      <c r="F179" t="str">
         <v>Engineering</v>
       </c>
-      <c r="G179" s="81">
+      <c r="G179">
         <v>78378.2</v>
       </c>
-      <c r="H179" s="81" t="str">
+      <c r="H179" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I179" s="82">
+      <c r="I179" s="6">
         <v>43465</v>
       </c>
-      <c r="J179" s="81">
+      <c r="J179">
         <v>0.4</v>
       </c>
-      <c r="K179" s="81" t="str">
+      <c r="K179" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L179" s="81" t="str">
+      <c r="L179" t="str">
         <v>Remote</v>
       </c>
-      <c r="M179" s="81">
+      <c r="M179">
         <v>5.4767123287671229</v>
       </c>
-      <c r="N179" s="83" t="str">
+      <c r="N179" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B180" s="80" t="str">
+      <c r="B180" s="77" t="str">
         <v>PR02603</v>
       </c>
-      <c r="C180" s="81" t="str">
+      <c r="C180" t="str">
         <v>Dinanath</v>
       </c>
-      <c r="D180" s="81" t="str">
+      <c r="D180" t="str">
         <v>Simhambhatla</v>
       </c>
-      <c r="E180" s="81" t="str">
+      <c r="E180" t="str">
         <v>Female</v>
       </c>
-      <c r="F180" s="81" t="str">
+      <c r="F180" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="G180" s="81">
+      <c r="G180">
         <v>61994.76</v>
       </c>
-      <c r="H180" s="81" t="str">
+      <c r="H180" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I180" s="82">
+      <c r="I180" s="6">
         <v>43794</v>
       </c>
-      <c r="J180" s="81">
+      <c r="J180">
         <v>0.3</v>
       </c>
-      <c r="K180" s="81" t="str">
+      <c r="K180" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L180" s="81" t="str">
+      <c r="L180" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M180" s="81">
+      <c r="M180">
         <v>4.5753424657534243</v>
       </c>
-      <c r="N180" s="83" t="str">
+      <c r="N180" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B181" s="80" t="str">
+      <c r="B181" s="77" t="str">
         <v>PR03158</v>
       </c>
-      <c r="C181" s="81" t="str">
+      <c r="C181" t="str">
         <v>Danica</v>
       </c>
-      <c r="D181" s="81" t="str">
+      <c r="D181" t="str">
         <v>Nayshe</v>
       </c>
-      <c r="E181" s="81" t="str">
+      <c r="E181" t="str">
         <v>Female</v>
       </c>
-      <c r="F181" s="81" t="str">
+      <c r="F181" t="str">
         <v>Services</v>
       </c>
-      <c r="G181" s="81">
+      <c r="G181">
         <v>89690.38</v>
       </c>
-      <c r="H181" s="81" t="str">
+      <c r="H181" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I181" s="82">
+      <c r="I181" s="6">
         <v>43206</v>
       </c>
-      <c r="J181" s="81">
-        <v>1</v>
-      </c>
-      <c r="K181" s="81" t="str">
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L181" s="81" t="str">
+      <c r="L181" t="str">
         <v>Wellington, New Zealand</v>
       </c>
-      <c r="M181" s="81">
+      <c r="M181">
         <v>6.1863013698630134</v>
       </c>
-      <c r="N181" s="83" t="str">
+      <c r="N181" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B182" s="80" t="str">
+      <c r="B182" s="77" t="str">
         <v>PR04380</v>
       </c>
-      <c r="C182" s="81" t="str">
+      <c r="C182" t="str">
         <v>Van</v>
       </c>
-      <c r="D182" s="81" t="str">
+      <c r="D182" t="str">
         <v>Tuxwell</v>
       </c>
-      <c r="E182" s="81" t="str">
+      <c r="E182" t="str">
         <v>Female</v>
       </c>
-      <c r="F182" s="81" t="str">
+      <c r="F182" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G182" s="81">
+      <c r="G182">
         <v>80695.740000000005</v>
       </c>
-      <c r="H182" s="81" t="str">
+      <c r="H182" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I182" s="82">
+      <c r="I182" s="6">
         <v>43787</v>
       </c>
-      <c r="J182" s="81">
+      <c r="J182">
         <v>0.8</v>
       </c>
-      <c r="K182" s="81" t="str">
+      <c r="K182" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L182" s="81" t="str">
+      <c r="L182" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M182" s="81">
+      <c r="M182">
         <v>4.5945205479452058</v>
       </c>
-      <c r="N182" s="83" t="str">
+      <c r="N182" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B183" s="80" t="str">
+      <c r="B183" s="77" t="str">
         <v>PR04446</v>
       </c>
-      <c r="C183" s="81" t="str">
+      <c r="C183" t="str">
         <v>Sameer</v>
       </c>
-      <c r="D183" s="81" t="str">
+      <c r="D183" t="str">
         <v>Shashank</v>
       </c>
-      <c r="E183" s="81" t="str">
+      <c r="E183" t="str">
         <v>Female</v>
       </c>
-      <c r="F183" s="81" t="str">
+      <c r="F183" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="G183" s="81">
+      <c r="G183">
         <v>92336.08</v>
       </c>
-      <c r="H183" s="81" t="str">
+      <c r="H183" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I183" s="82">
+      <c r="I183" s="6">
         <v>44431</v>
       </c>
-      <c r="J183" s="81">
-        <v>1</v>
-      </c>
-      <c r="K183" s="81" t="str">
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L183" s="81" t="str">
+      <c r="L183" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M183" s="81">
+      <c r="M183">
         <v>2.8301369863013699</v>
       </c>
-      <c r="N183" s="83" t="str">
+      <c r="N183" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B184" s="80" t="str">
+      <c r="B184" s="77" t="str">
         <v>PR04473</v>
       </c>
-      <c r="C184" s="81" t="str">
+      <c r="C184" t="str">
         <v>Wyn</v>
       </c>
-      <c r="D184" s="81" t="str">
+      <c r="D184" t="str">
         <v>Treadger</v>
       </c>
-      <c r="E184" s="81" t="str">
+      <c r="E184" t="str">
         <v>Female</v>
       </c>
-      <c r="F184" s="81" t="str">
+      <c r="F184" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G184" s="81">
+      <c r="G184">
         <v>69192.850000000006</v>
       </c>
-      <c r="H184" s="81" t="str">
+      <c r="H184" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I184" s="82">
+      <c r="I184" s="6">
         <v>44305</v>
       </c>
-      <c r="J184" s="81">
-        <v>1</v>
-      </c>
-      <c r="K184" s="81" t="str">
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L184" s="81" t="str">
+      <c r="L184" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M184" s="81">
+      <c r="M184">
         <v>3.1753424657534248</v>
       </c>
-      <c r="N184" s="83" t="str">
+      <c r="N184" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B185" s="80" t="str">
+      <c r="B185" s="77" t="str">
         <v>PR04686</v>
       </c>
-      <c r="C185" s="81" t="str">
+      <c r="C185" t="str">
         <v>Oona</v>
       </c>
-      <c r="D185" s="81" t="str">
+      <c r="D185" t="str">
         <v>Donan</v>
       </c>
-      <c r="E185" s="81" t="str">
+      <c r="E185" t="str">
         <v>Female</v>
       </c>
-      <c r="F185" s="81" t="str">
+      <c r="F185" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G185" s="81">
+      <c r="G185">
         <v>98000</v>
       </c>
-      <c r="H185" s="81" t="str">
+      <c r="H185" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I185" s="82">
+      <c r="I185" s="6">
         <v>43710</v>
       </c>
-      <c r="J185" s="81">
+      <c r="J185">
         <v>0.9</v>
       </c>
-      <c r="K185" s="81" t="str">
+      <c r="K185" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L185" s="81" t="str">
+      <c r="L185" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M185" s="81">
+      <c r="M185">
         <v>4.8054794520547945</v>
       </c>
-      <c r="N185" s="83" t="str">
+      <c r="N185" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B186" s="80" t="str">
+      <c r="B186" s="77" t="str">
         <v>SQ00105</v>
       </c>
-      <c r="C186" s="81" t="str">
+      <c r="C186" t="str">
         <v>Sarayu</v>
       </c>
-      <c r="D186" s="81" t="str">
+      <c r="D186" t="str">
         <v>Ragunathan</v>
       </c>
-      <c r="E186" s="81" t="str">
+      <c r="E186" t="str">
         <v>Female</v>
       </c>
-      <c r="F186" s="81" t="str">
+      <c r="F186" t="str">
         <v>Training</v>
       </c>
-      <c r="G186" s="81">
+      <c r="G186">
         <v>86010.54</v>
       </c>
-      <c r="H186" s="81" t="str">
+      <c r="H186" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I186" s="82">
+      <c r="I186" s="6">
         <v>43164</v>
       </c>
-      <c r="J186" s="81">
-        <v>1</v>
-      </c>
-      <c r="K186" s="81" t="str">
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L186" s="81" t="str">
+      <c r="L186" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M186" s="81">
+      <c r="M186">
         <v>6.3013698630136989</v>
       </c>
-      <c r="N186" s="83" t="str">
+      <c r="N186" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B187" s="80" t="str">
+      <c r="B187" s="77" t="str">
         <v>SQ00841</v>
       </c>
-      <c r="C187" s="81" t="str">
+      <c r="C187" t="str">
         <v>Bhuvan</v>
       </c>
-      <c r="D187" s="81" t="str">
+      <c r="D187" t="str">
         <v>Pals</v>
       </c>
-      <c r="E187" s="81" t="str">
+      <c r="E187" t="str">
         <v>Female</v>
       </c>
-      <c r="F187" s="81" t="str">
+      <c r="F187" t="str">
         <v>Services</v>
       </c>
-      <c r="G187" s="81">
+      <c r="G187">
         <v>89690.38</v>
       </c>
-      <c r="H187" s="81" t="str">
+      <c r="H187" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I187" s="82">
+      <c r="I187" s="6">
         <v>43213</v>
       </c>
-      <c r="J187" s="81">
-        <v>1</v>
-      </c>
-      <c r="K187" s="81" t="str">
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L187" s="81" t="str">
+      <c r="L187" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M187" s="81">
+      <c r="M187">
         <v>6.1671232876712327</v>
       </c>
-      <c r="N187" s="83" t="str">
+      <c r="N187" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B188" s="80" t="str">
+      <c r="B188" s="77" t="str">
         <v>SQ00914</v>
       </c>
-      <c r="C188" s="81" t="str">
+      <c r="C188" t="str">
         <v>Duran</v>
       </c>
-      <c r="D188" s="81" t="str">
+      <c r="D188" t="str">
         <v>Appala</v>
       </c>
-      <c r="E188" s="81" t="str">
+      <c r="E188" t="str">
         <v>Female</v>
       </c>
-      <c r="F188" s="81" t="str">
+      <c r="F188" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G188" s="81">
+      <c r="G188">
         <v>38438.239999999998</v>
       </c>
-      <c r="H188" s="81" t="str">
+      <c r="H188" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I188" s="82">
+      <c r="I188" s="6">
         <v>43962</v>
       </c>
-      <c r="J188" s="81">
-        <v>1</v>
-      </c>
-      <c r="K188" s="81" t="str">
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L188" s="81" t="str">
+      <c r="L188" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M188" s="81">
+      <c r="M188">
         <v>4.1150684931506847</v>
       </c>
-      <c r="N188" s="83" t="str">
+      <c r="N188" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="189" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B189" s="80" t="str">
+      <c r="B189" s="77" t="str">
         <v>SQ00914</v>
       </c>
-      <c r="C189" s="81" t="str">
+      <c r="C189" t="str">
         <v>Karuna</v>
       </c>
-      <c r="D189" s="81" t="str">
+      <c r="D189" t="str">
         <v>Pashupathy</v>
       </c>
-      <c r="E189" s="81" t="str">
+      <c r="E189" t="str">
         <v>Female</v>
       </c>
-      <c r="F189" s="81" t="str">
+      <c r="F189" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G189" s="81">
+      <c r="G189">
         <v>38438.239999999998</v>
       </c>
-      <c r="H189" s="81" t="str">
+      <c r="H189" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I189" s="82">
+      <c r="I189" s="6">
         <v>43962</v>
       </c>
-      <c r="J189" s="81">
-        <v>1</v>
-      </c>
-      <c r="K189" s="81" t="str">
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L189" s="81" t="str">
+      <c r="L189" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M189" s="81">
+      <c r="M189">
         <v>4.1150684931506847</v>
       </c>
-      <c r="N189" s="83" t="str">
+      <c r="N189" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="190" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B190" s="80" t="str">
+      <c r="B190" s="77" t="str">
         <v>SQ01402</v>
       </c>
-      <c r="C190" s="81" t="str">
+      <c r="C190" t="str">
         <v>Sahaj</v>
       </c>
-      <c r="D190" s="81" t="str">
+      <c r="D190" t="str">
         <v>Jonnalagadda</v>
       </c>
-      <c r="E190" s="81" t="str">
+      <c r="E190" t="str">
         <v>Female</v>
       </c>
-      <c r="F190" s="81" t="str">
+      <c r="F190" t="str">
         <v>Engineering</v>
       </c>
-      <c r="G190" s="81">
+      <c r="G190">
         <v>44403.77</v>
       </c>
-      <c r="H190" s="81" t="str">
+      <c r="H190" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I190" s="82">
+      <c r="I190" s="6">
         <v>43416</v>
       </c>
-      <c r="J190" s="81">
-        <v>1</v>
-      </c>
-      <c r="K190" s="81" t="str">
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L190" s="81" t="str">
+      <c r="L190" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M190" s="81">
+      <c r="M190">
         <v>5.6109589041095891</v>
       </c>
-      <c r="N190" s="83" t="str">
+      <c r="N190" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B191" s="80" t="str">
+      <c r="B191" s="77" t="str">
         <v>SQ01730</v>
       </c>
-      <c r="C191" s="81" t="str">
+      <c r="C191" t="str">
         <v>Austine</v>
       </c>
-      <c r="D191" s="81" t="str">
+      <c r="D191" t="str">
         <v>Littlewood</v>
       </c>
-      <c r="E191" s="81" t="str">
+      <c r="E191" t="str">
         <v>Female</v>
       </c>
-      <c r="F191" s="81" t="str">
+      <c r="F191" t="str">
         <v>Services</v>
       </c>
-      <c r="G191" s="81">
+      <c r="G191">
         <v>32269.91</v>
       </c>
-      <c r="H191" s="81" t="str">
+      <c r="H191" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I191" s="82">
+      <c r="I191" s="6">
         <v>43346</v>
       </c>
-      <c r="J191" s="81">
-        <v>1</v>
-      </c>
-      <c r="K191" s="81" t="str">
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L191" s="81" t="str">
+      <c r="L191" t="str">
         <v>Remote</v>
       </c>
-      <c r="M191" s="81">
+      <c r="M191">
         <v>5.8027397260273972</v>
       </c>
-      <c r="N191" s="83" t="str">
+      <c r="N191" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B192" s="80" t="str">
+      <c r="B192" s="77" t="str">
         <v>SQ02174</v>
       </c>
-      <c r="C192" s="81" t="str">
+      <c r="C192" t="str">
         <v>Sidoney</v>
       </c>
-      <c r="D192" s="81" t="str">
+      <c r="D192" t="str">
         <v>Yitzhok</v>
       </c>
-      <c r="E192" s="81" t="str">
+      <c r="E192" t="str">
         <v>Female</v>
       </c>
-      <c r="F192" s="81" t="str">
+      <c r="F192" t="str">
         <v>Engineering</v>
       </c>
-      <c r="G192" s="81">
+      <c r="G192">
         <v>118442.54</v>
       </c>
-      <c r="H192" s="81" t="str">
+      <c r="H192" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I192" s="82">
+      <c r="I192" s="6">
         <v>44193</v>
       </c>
-      <c r="J192" s="81">
-        <v>1</v>
-      </c>
-      <c r="K192" s="81" t="str">
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L192" s="81" t="str">
+      <c r="L192" t="str">
         <v>Auckland, New Zealand</v>
       </c>
-      <c r="M192" s="81">
+      <c r="M192">
         <v>3.4821917808219176</v>
       </c>
-      <c r="N192" s="83" t="str">
+      <c r="N192" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B193" s="80" t="str">
+      <c r="B193" s="77" t="str">
         <v>SQ03321</v>
       </c>
-      <c r="C193" s="81" t="str">
+      <c r="C193" t="str">
         <v>Gradey</v>
       </c>
-      <c r="D193" s="81" t="str">
+      <c r="D193" t="str">
         <v>Litton</v>
       </c>
-      <c r="E193" s="81" t="str">
+      <c r="E193" t="str">
         <v>Female</v>
       </c>
-      <c r="F193" s="81" t="str">
+      <c r="F193" t="str">
         <v>Accounting</v>
       </c>
-      <c r="G193" s="81">
+      <c r="G193">
         <v>68887.839999999997</v>
       </c>
-      <c r="H193" s="81" t="str">
+      <c r="H193" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I193" s="82">
+      <c r="I193" s="6">
         <v>43297</v>
       </c>
-      <c r="J193" s="81">
-        <v>1</v>
-      </c>
-      <c r="K193" s="81" t="str">
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L193" s="81" t="str">
+      <c r="L193" t="str">
         <v>Remote</v>
       </c>
-      <c r="M193" s="81">
+      <c r="M193">
         <v>5.9369863013698634</v>
       </c>
-      <c r="N193" s="83" t="str">
+      <c r="N193" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B194" s="80" t="str">
+      <c r="B194" s="77" t="str">
         <v>SQ03350</v>
       </c>
-      <c r="C194" s="81" t="str">
+      <c r="C194" t="str">
         <v>Felice</v>
       </c>
-      <c r="D194" s="81" t="str">
+      <c r="D194" t="str">
         <v>McMurty</v>
       </c>
-      <c r="E194" s="81" t="str">
+      <c r="E194" t="str">
         <v>Female</v>
       </c>
-      <c r="F194" s="81" t="str">
+      <c r="F194" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G194" s="81">
+      <c r="G194">
         <v>66865.490000000005</v>
       </c>
-      <c r="H194" s="81" t="str">
+      <c r="H194" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I194" s="82">
+      <c r="I194" s="6">
         <v>43514</v>
       </c>
-      <c r="J194" s="81">
-        <v>1</v>
-      </c>
-      <c r="K194" s="81" t="str">
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L194" s="81" t="str">
+      <c r="L194" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M194" s="81">
+      <c r="M194">
         <v>5.3424657534246576</v>
       </c>
-      <c r="N194" s="83" t="str">
+      <c r="N194" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B195" s="80" t="str">
+      <c r="B195" s="77" t="str">
         <v>SQ03350</v>
       </c>
-      <c r="C195" s="81" t="str">
+      <c r="C195" t="str">
         <v>Felice</v>
       </c>
-      <c r="D195" s="81" t="str">
+      <c r="D195" t="str">
         <v>McMurty</v>
       </c>
-      <c r="E195" s="81" t="str">
+      <c r="E195" t="str">
         <v>Female</v>
       </c>
-      <c r="F195" s="81" t="str">
+      <c r="F195" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G195" s="81">
+      <c r="G195">
         <v>66865.490000000005</v>
       </c>
-      <c r="H195" s="81" t="str">
+      <c r="H195" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I195" s="82">
+      <c r="I195" s="6">
         <v>43514</v>
       </c>
-      <c r="J195" s="81">
-        <v>1</v>
-      </c>
-      <c r="K195" s="81" t="str">
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L195" s="81" t="str">
+      <c r="L195" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M195" s="81">
+      <c r="M195">
         <v>5.3424657534246576</v>
       </c>
-      <c r="N195" s="83" t="str">
+      <c r="N195" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B196" s="80" t="str">
+      <c r="B196" s="77" t="str">
         <v>SQ03491</v>
       </c>
-      <c r="C196" s="81" t="str">
+      <c r="C196" t="str">
         <v>Freda</v>
       </c>
-      <c r="D196" s="81" t="str">
+      <c r="D196" t="str">
         <v>Legan</v>
       </c>
-      <c r="E196" s="81" t="str">
+      <c r="E196" t="str">
         <v>Female</v>
       </c>
-      <c r="F196" s="81" t="str">
+      <c r="F196" t="str">
         <v>Sales</v>
       </c>
-      <c r="G196" s="81">
+      <c r="G196">
         <v>102129.37</v>
       </c>
-      <c r="H196" s="81" t="str">
+      <c r="H196" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I196" s="82">
+      <c r="I196" s="6">
         <v>44396</v>
       </c>
-      <c r="J196" s="81">
-        <v>1</v>
-      </c>
-      <c r="K196" s="81" t="str">
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L196" s="81" t="str">
+      <c r="L196" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M196" s="81">
+      <c r="M196">
         <v>2.9260273972602739</v>
       </c>
-      <c r="N196" s="83" t="str">
+      <c r="N196" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B197" s="80" t="str">
+      <c r="B197" s="77" t="str">
         <v>SQ03546</v>
       </c>
-      <c r="C197" s="81" t="str">
+      <c r="C197" t="str">
         <v>Amlankusum</v>
       </c>
-      <c r="D197" s="81" t="str">
+      <c r="D197" t="str">
         <v>Rajabhushan</v>
       </c>
-      <c r="E197" s="81" t="str">
+      <c r="E197" t="str">
         <v>Female</v>
       </c>
-      <c r="F197" s="81" t="str">
+      <c r="F197" t="str">
         <v>Legal</v>
       </c>
-      <c r="G197" s="81">
+      <c r="G197">
         <v>75733.740000000005</v>
       </c>
-      <c r="H197" s="81" t="str">
+      <c r="H197" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I197" s="82">
+      <c r="I197" s="6">
         <v>44382</v>
       </c>
-      <c r="J197" s="81">
-        <v>1</v>
-      </c>
-      <c r="K197" s="81" t="str">
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L197" s="81" t="str">
+      <c r="L197" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M197" s="81">
+      <c r="M197">
         <v>2.9643835616438357</v>
       </c>
-      <c r="N197" s="83" t="str">
+      <c r="N197" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B198" s="80" t="str">
+      <c r="B198" s="77" t="str">
         <v>SQ03625</v>
       </c>
-      <c r="C198" s="81" t="str">
+      <c r="C198" t="str">
         <v>Fidela</v>
       </c>
-      <c r="D198" s="81" t="str">
+      <c r="D198" t="str">
         <v>Artis</v>
       </c>
-      <c r="E198" s="81" t="str">
+      <c r="E198" t="str">
         <v>Female</v>
       </c>
-      <c r="F198" s="81" t="str">
+      <c r="F198" t="str">
         <v>Sales</v>
       </c>
-      <c r="G198" s="81">
+      <c r="G198">
         <v>78020.39</v>
       </c>
-      <c r="H198" s="81" t="str">
+      <c r="H198" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I198" s="82">
+      <c r="I198" s="6">
         <v>43899</v>
       </c>
-      <c r="J198" s="81">
-        <v>1</v>
-      </c>
-      <c r="K198" s="81" t="str">
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L198" s="81" t="str">
+      <c r="L198" t="str">
         <v>Remote</v>
       </c>
-      <c r="M198" s="81">
+      <c r="M198">
         <v>4.2876712328767121</v>
       </c>
-      <c r="N198" s="83" t="str">
+      <c r="N198" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B199" s="80" t="str">
+      <c r="B199" s="77" t="str">
         <v>SQ03626</v>
       </c>
-      <c r="C199" s="81" t="str">
+      <c r="C199" t="str">
         <v>Krishnakanta</v>
       </c>
-      <c r="D199" s="81" t="str">
+      <c r="D199" t="str">
         <v>Vellanki</v>
       </c>
-      <c r="E199" s="81" t="str">
+      <c r="E199" t="str">
         <v>Female</v>
       </c>
-      <c r="F199" s="81" t="str">
+      <c r="F199" t="str">
         <v>Training</v>
       </c>
-      <c r="G199" s="81">
+      <c r="G199">
         <v>95677.9</v>
       </c>
-      <c r="H199" s="81" t="str">
+      <c r="H199" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I199" s="82">
+      <c r="I199" s="6">
         <v>44396</v>
       </c>
-      <c r="J199" s="81">
+      <c r="J199">
         <v>0.3</v>
       </c>
-      <c r="K199" s="81" t="str">
+      <c r="K199" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L199" s="81" t="str">
+      <c r="L199" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M199" s="81">
+      <c r="M199">
         <v>2.9260273972602739</v>
       </c>
-      <c r="N199" s="83" t="str">
+      <c r="N199" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B200" s="80" t="str">
+      <c r="B200" s="77" t="str">
         <v>SQ04613</v>
       </c>
-      <c r="C200" s="81" t="str">
+      <c r="C200" t="str">
         <v>Sarojini</v>
       </c>
-      <c r="D200" s="81" t="str">
+      <c r="D200" t="str">
         <v>Naueshwara</v>
       </c>
-      <c r="E200" s="81" t="str">
+      <c r="E200" t="str">
         <v>Female</v>
       </c>
-      <c r="F200" s="81" t="str">
+      <c r="F200" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="G200" s="81">
+      <c r="G200">
         <v>85264.38</v>
       </c>
-      <c r="H200" s="81" t="str">
+      <c r="H200" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I200" s="82">
+      <c r="I200" s="6">
         <v>43220</v>
       </c>
-      <c r="J200" s="81">
-        <v>1</v>
-      </c>
-      <c r="K200" s="81" t="str">
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L200" s="81" t="str">
+      <c r="L200" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M200" s="81">
+      <c r="M200">
         <v>6.1479452054794521</v>
       </c>
-      <c r="N200" s="83" t="str">
+      <c r="N200" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B201" s="80" t="str">
+      <c r="B201" s="77" t="str">
         <v>SQ04960</v>
       </c>
-      <c r="C201" s="81" t="str">
+      <c r="C201" t="str">
         <v>Shubhra</v>
       </c>
-      <c r="D201" s="81" t="str">
+      <c r="D201" t="str">
         <v>Potla</v>
       </c>
-      <c r="E201" s="81" t="str">
+      <c r="E201" t="str">
         <v>Female</v>
       </c>
-      <c r="F201" s="81" t="str">
+      <c r="F201" t="str">
         <v>Support</v>
       </c>
-      <c r="G201" s="81">
+      <c r="G201">
         <v>71924.850000000006</v>
       </c>
-      <c r="H201" s="81" t="str">
+      <c r="H201" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I201" s="82">
+      <c r="I201" s="6">
         <v>43822</v>
       </c>
-      <c r="J201" s="81">
-        <v>1</v>
-      </c>
-      <c r="K201" s="81" t="str">
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L201" s="81" t="str">
+      <c r="L201" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M201" s="81">
+      <c r="M201">
         <v>4.4986301369863018</v>
       </c>
-      <c r="N201" s="83" t="str">
+      <c r="N201" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B202" s="80" t="str">
+      <c r="B202" s="77" t="str">
         <v>TN00083</v>
       </c>
-      <c r="C202" s="81" t="str">
+      <c r="C202" t="str">
         <v>Chandana</v>
       </c>
-      <c r="D202" s="81" t="str">
+      <c r="D202" t="str">
         <v>Sannidhi</v>
       </c>
-      <c r="E202" s="81" t="str">
+      <c r="E202" t="str">
         <v>Female</v>
       </c>
-      <c r="F202" s="81" t="str">
+      <c r="F202" t="str">
         <v>Business Development</v>
       </c>
-      <c r="G202" s="81">
+      <c r="G202">
         <v>61688.77</v>
       </c>
-      <c r="H202" s="81" t="str">
+      <c r="H202" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I202" s="82">
+      <c r="I202" s="6">
         <v>43346</v>
       </c>
-      <c r="J202" s="81">
+      <c r="J202">
         <v>0.9</v>
       </c>
-      <c r="K202" s="81" t="str">
+      <c r="K202" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L202" s="81" t="str">
+      <c r="L202" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M202" s="81">
+      <c r="M202">
         <v>5.8027397260273972</v>
       </c>
-      <c r="N202" s="83" t="str">
+      <c r="N202" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B203" s="80" t="str">
+      <c r="B203" s="77" t="str">
         <v>TN00182</v>
       </c>
-      <c r="C203" s="81" t="str">
+      <c r="C203" t="str">
         <v>Camilla</v>
       </c>
-      <c r="D203" s="81" t="str">
+      <c r="D203" t="str">
         <v>Castle</v>
       </c>
-      <c r="E203" s="81" t="str">
+      <c r="E203" t="str">
         <v>Female</v>
       </c>
-      <c r="F203" s="81" t="str">
+      <c r="F203" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G203" s="81">
+      <c r="G203">
         <v>75475.929999999993</v>
       </c>
-      <c r="H203" s="81" t="str">
+      <c r="H203" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I203" s="82">
+      <c r="I203" s="6">
         <v>43794</v>
       </c>
-      <c r="J203" s="81">
-        <v>1</v>
-      </c>
-      <c r="K203" s="81" t="str">
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L203" s="81" t="str">
+      <c r="L203" t="str">
         <v>Remote</v>
       </c>
-      <c r="M203" s="81">
+      <c r="M203">
         <v>4.5753424657534243</v>
       </c>
-      <c r="N203" s="83" t="str">
+      <c r="N203" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B204" s="80" t="str">
+      <c r="B204" s="77" t="str">
         <v>TN00890</v>
       </c>
-      <c r="C204" s="81" t="str">
+      <c r="C204" t="str">
         <v>Mayur</v>
       </c>
-      <c r="D204" s="81" t="str">
+      <c r="D204" t="str">
         <v>Kousika</v>
       </c>
-      <c r="E204" s="81" t="str">
+      <c r="E204" t="str">
         <v>Female</v>
       </c>
-      <c r="F204" s="81" t="str">
+      <c r="F204" t="str">
         <v>Training</v>
       </c>
-      <c r="G204" s="81">
+      <c r="G204">
         <v>71570.990000000005</v>
       </c>
-      <c r="H204" s="81" t="str">
+      <c r="H204" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I204" s="82">
+      <c r="I204" s="6">
         <v>44249</v>
       </c>
-      <c r="J204" s="81">
+      <c r="J204">
         <v>0.5</v>
       </c>
-      <c r="K204" s="81" t="str">
+      <c r="K204" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L204" s="81" t="str">
+      <c r="L204" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M204" s="81">
+      <c r="M204">
         <v>3.3287671232876712</v>
       </c>
-      <c r="N204" s="83" t="str">
+      <c r="N204" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B205" s="80" t="str">
+      <c r="B205" s="77" t="str">
         <v>TN01281</v>
       </c>
-      <c r="C205" s="81" t="str">
+      <c r="C205" t="str">
         <v>Cletus</v>
       </c>
-      <c r="D205" s="81" t="str">
+      <c r="D205" t="str">
         <v>McGarahan</v>
       </c>
-      <c r="E205" s="81" t="str">
+      <c r="E205" t="str">
         <v>Female</v>
       </c>
-      <c r="F205" s="81" t="str">
+      <c r="F205" t="str">
         <v>Engineering</v>
       </c>
-      <c r="G205" s="81">
+      <c r="G205">
         <v>114425.19</v>
       </c>
-      <c r="H205" s="81" t="str">
+      <c r="H205" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I205" s="82">
+      <c r="I205" s="6">
         <v>43857</v>
       </c>
-      <c r="J205" s="81">
-        <v>1</v>
-      </c>
-      <c r="K205" s="81" t="str">
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L205" s="81" t="str">
+      <c r="L205" t="str">
         <v>Wellington, New Zealand</v>
       </c>
-      <c r="M205" s="81">
+      <c r="M205">
         <v>4.4027397260273968</v>
       </c>
-      <c r="N205" s="83" t="str">
+      <c r="N205" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B206" s="80" t="str">
+      <c r="B206" s="77" t="str">
         <v>TN01601</v>
       </c>
-      <c r="C206" s="81" t="str">
+      <c r="C206" t="str">
         <v>Melva</v>
       </c>
-      <c r="D206" s="81" t="str">
+      <c r="D206" t="str">
         <v>Jickells</v>
       </c>
-      <c r="E206" s="81" t="str">
+      <c r="E206" t="str">
         <v>Female</v>
       </c>
-      <c r="F206" s="81" t="str">
+      <c r="F206" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G206" s="81">
+      <c r="G206">
         <v>68795.48</v>
       </c>
-      <c r="H206" s="81" t="str">
+      <c r="H206" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I206" s="82">
+      <c r="I206" s="6">
         <v>44277</v>
       </c>
-      <c r="J206" s="81">
+      <c r="J206">
         <v>0.2</v>
       </c>
-      <c r="K206" s="81" t="str">
+      <c r="K206" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L206" s="81" t="str">
+      <c r="L206" t="str">
         <v>Remote</v>
       </c>
-      <c r="M206" s="81">
+      <c r="M206">
         <v>3.2520547945205478</v>
       </c>
-      <c r="N206" s="83" t="str">
+      <c r="N206" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B207" s="80" t="str">
+      <c r="B207" s="77" t="str">
         <v>TN01601</v>
       </c>
-      <c r="C207" s="81" t="str">
+      <c r="C207" t="str">
         <v>Melva</v>
       </c>
-      <c r="D207" s="81" t="str">
+      <c r="D207" t="str">
         <v>Jickells</v>
       </c>
-      <c r="E207" s="81" t="str">
+      <c r="E207" t="str">
         <v>Female</v>
       </c>
-      <c r="F207" s="81" t="str">
+      <c r="F207" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G207" s="81">
+      <c r="G207">
         <v>68795.48</v>
       </c>
-      <c r="H207" s="81" t="str">
+      <c r="H207" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I207" s="82">
+      <c r="I207" s="6">
         <v>44277</v>
       </c>
-      <c r="J207" s="81">
+      <c r="J207">
         <v>0.2</v>
       </c>
-      <c r="K207" s="81" t="str">
+      <c r="K207" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L207" s="81" t="str">
+      <c r="L207" t="str">
         <v>Remote</v>
       </c>
-      <c r="M207" s="81">
+      <c r="M207">
         <v>3.2520547945205478</v>
       </c>
-      <c r="N207" s="83" t="str">
+      <c r="N207" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B208" s="80" t="str">
+      <c r="B208" s="77" t="str">
         <v>TN02749</v>
       </c>
-      <c r="C208" s="81" t="str">
+      <c r="C208" t="str">
         <v>Parasuramudu</v>
       </c>
-      <c r="D208" s="81" t="str">
+      <c r="D208" t="str">
         <v>Jamakayala</v>
       </c>
-      <c r="E208" s="81" t="str">
+      <c r="E208" t="str">
         <v>Female</v>
       </c>
-      <c r="F208" s="81" t="str">
+      <c r="F208" t="str">
         <v>Training</v>
       </c>
-      <c r="G208" s="81">
+      <c r="G208">
         <v>57002.02</v>
       </c>
-      <c r="H208" s="81" t="str">
+      <c r="H208" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I208" s="82">
+      <c r="I208" s="6">
         <v>43192</v>
       </c>
-      <c r="J208" s="81">
+      <c r="J208">
         <v>0.7</v>
       </c>
-      <c r="K208" s="81" t="str">
+      <c r="K208" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L208" s="81" t="str">
+      <c r="L208" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M208" s="81">
+      <c r="M208">
         <v>6.2246575342465755</v>
       </c>
-      <c r="N208" s="83" t="str">
+      <c r="N208" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="209" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B209" s="80" t="str">
+      <c r="B209" s="77" t="str">
         <v>TN02883</v>
       </c>
-      <c r="C209" s="81" t="str">
+      <c r="C209" t="str">
         <v>John</v>
       </c>
-      <c r="D209" s="81" t="str">
+      <c r="D209" t="str">
         <v>Joseph</v>
       </c>
-      <c r="E209" s="81" t="str">
+      <c r="E209" t="str">
         <v>Female</v>
       </c>
-      <c r="F209" s="81" t="str">
+      <c r="F209" t="str">
         <v>Sales</v>
       </c>
-      <c r="G209" s="81">
+      <c r="G209">
         <v>84762.76</v>
       </c>
-      <c r="H209" s="81" t="str">
+      <c r="H209" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I209" s="82">
+      <c r="I209" s="6">
         <v>43332</v>
       </c>
-      <c r="J209" s="81">
-        <v>1</v>
-      </c>
-      <c r="K209" s="81" t="str">
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209" t="str">
         <v>Permanent</v>
       </c>
-      <c r="L209" s="81" t="str">
+      <c r="L209" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M209" s="81">
+      <c r="M209">
         <v>5.8410958904109593</v>
       </c>
-      <c r="N209" s="83" t="str">
+      <c r="N209" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B210" s="80" t="str">
+      <c r="B210" s="77" t="str">
         <v>TN03575</v>
       </c>
-      <c r="C210" s="81" t="str">
+      <c r="C210" t="str">
         <v>Janina</v>
       </c>
-      <c r="D210" s="81" t="str">
+      <c r="D210" t="str">
         <v>Wolverson</v>
       </c>
-      <c r="E210" s="81" t="str">
+      <c r="E210" t="str">
         <v>Female</v>
       </c>
-      <c r="F210" s="81" t="str">
+      <c r="F210" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="G210" s="81">
+      <c r="G210">
         <v>99683.67</v>
       </c>
-      <c r="H210" s="81" t="str">
+      <c r="H210" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I210" s="82">
+      <c r="I210" s="6">
         <v>43500</v>
       </c>
-      <c r="J210" s="81">
-        <v>1</v>
-      </c>
-      <c r="K210" s="81" t="str">
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L210" s="81" t="str">
+      <c r="L210" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M210" s="81">
+      <c r="M210">
         <v>5.3808219178082188</v>
       </c>
-      <c r="N210" s="83" t="str">
+      <c r="N210" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B211" s="80" t="str">
+      <c r="B211" s="77" t="str">
         <v>TN03575</v>
       </c>
-      <c r="C211" s="81" t="str">
+      <c r="C211" t="str">
         <v>Janina</v>
       </c>
-      <c r="D211" s="81" t="str">
+      <c r="D211" t="str">
         <v>Wolverson</v>
       </c>
-      <c r="E211" s="81" t="str">
+      <c r="E211" t="str">
         <v>Female</v>
       </c>
-      <c r="F211" s="81" t="str">
+      <c r="F211" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="G211" s="81">
+      <c r="G211">
         <v>99683.67</v>
       </c>
-      <c r="H211" s="81" t="str">
+      <c r="H211" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I211" s="82">
+      <c r="I211" s="6">
         <v>43500</v>
       </c>
-      <c r="J211" s="81">
-        <v>1</v>
-      </c>
-      <c r="K211" s="81" t="str">
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L211" s="81" t="str">
+      <c r="L211" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M211" s="81">
+      <c r="M211">
         <v>5.3808219178082188</v>
       </c>
-      <c r="N211" s="83" t="str">
+      <c r="N211" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="212" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B212" s="80" t="str">
+      <c r="B212" s="77" t="str">
         <v>TN04067</v>
       </c>
-      <c r="C212" s="81" t="str">
+      <c r="C212" t="str">
         <v>Lea</v>
       </c>
-      <c r="D212" s="81" t="str">
+      <c r="D212" t="str">
         <v>Chaplin</v>
       </c>
-      <c r="E212" s="81" t="str">
+      <c r="E212" t="str">
         <v>Female</v>
       </c>
-      <c r="F212" s="81" t="str">
+      <c r="F212" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="G212" s="81">
+      <c r="G212">
         <v>73488.679999999993</v>
       </c>
-      <c r="H212" s="81" t="str">
+      <c r="H212" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I212" s="82">
+      <c r="I212" s="6">
         <v>43570</v>
       </c>
-      <c r="J212" s="81">
-        <v>1</v>
-      </c>
-      <c r="K212" s="81" t="str">
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L212" s="81" t="str">
+      <c r="L212" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M212" s="81">
+      <c r="M212">
         <v>5.1890410958904107</v>
       </c>
-      <c r="N212" s="83" t="str">
+      <c r="N212" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B213" s="80" t="str">
+      <c r="B213" s="77" t="str">
         <v>TN04175</v>
       </c>
-      <c r="C213" s="81" t="str">
+      <c r="C213" t="str">
         <v>Hinda</v>
       </c>
-      <c r="D213" s="81" t="str">
+      <c r="D213" t="str">
         <v>Label</v>
       </c>
-      <c r="E213" s="81" t="str">
+      <c r="E213" t="str">
         <v>Female</v>
       </c>
-      <c r="F213" s="81" t="str">
+      <c r="F213" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="G213" s="81">
+      <c r="G213">
         <v>92704.48</v>
       </c>
-      <c r="H213" s="81" t="str">
+      <c r="H213" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I213" s="82">
+      <c r="I213" s="6">
         <v>43430</v>
       </c>
-      <c r="J213" s="81">
-        <v>1</v>
-      </c>
-      <c r="K213" s="81" t="str">
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L213" s="81" t="str">
+      <c r="L213" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M213" s="81">
+      <c r="M213">
         <v>5.5726027397260278</v>
       </c>
-      <c r="N213" s="83" t="str">
+      <c r="N213" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B214" s="80" t="str">
+      <c r="B214" s="77" t="str">
         <v>TN04246</v>
       </c>
-      <c r="C214" s="81" t="str">
+      <c r="C214" t="str">
         <v>Shaylyn</v>
       </c>
-      <c r="D214" s="81" t="str">
+      <c r="D214" t="str">
         <v>Ransbury</v>
       </c>
-      <c r="E214" s="81" t="str">
+      <c r="E214" t="str">
         <v>Female</v>
       </c>
-      <c r="F214" s="81" t="str">
+      <c r="F214" t="str">
         <v>Support</v>
       </c>
-      <c r="G214" s="81">
+      <c r="G214">
         <v>100371.31</v>
       </c>
-      <c r="H214" s="81" t="str">
+      <c r="H214" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I214" s="82">
+      <c r="I214" s="6">
         <v>44067</v>
       </c>
-      <c r="J214" s="81">
+      <c r="J214">
         <v>0.8</v>
       </c>
-      <c r="K214" s="81" t="str">
+      <c r="K214" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L214" s="81" t="str">
+      <c r="L214" t="str">
         <v>Auckland, New Zealand</v>
       </c>
-      <c r="M214" s="81">
+      <c r="M214">
         <v>3.8273972602739725</v>
       </c>
-      <c r="N214" s="83" t="str">
+      <c r="N214" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B215" s="80" t="str">
+      <c r="B215" s="77" t="str">
         <v>TN04740</v>
       </c>
-      <c r="C215" s="81" t="str">
+      <c r="C215" t="str">
         <v>Tristam</v>
       </c>
-      <c r="D215" s="81" t="str">
+      <c r="D215" t="str">
         <v>Cuming</v>
       </c>
-      <c r="E215" s="81" t="str">
+      <c r="E215" t="str">
         <v>Female</v>
       </c>
-      <c r="F215" s="81" t="str">
+      <c r="F215" t="str">
         <v>Support</v>
       </c>
-      <c r="G215" s="81">
+      <c r="G215">
         <v>104038.9</v>
       </c>
-      <c r="H215" s="81" t="str">
+      <c r="H215" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I215" s="82">
+      <c r="I215" s="6">
         <v>43815</v>
       </c>
-      <c r="J215" s="81">
-        <v>1</v>
-      </c>
-      <c r="K215" s="81" t="str">
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L215" s="81" t="str">
+      <c r="L215" t="str">
         <v>Remote</v>
       </c>
-      <c r="M215" s="81">
+      <c r="M215">
         <v>4.5178082191780824</v>
       </c>
-      <c r="N215" s="83" t="str">
+      <c r="N215" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B216" s="80" t="str">
+      <c r="B216" s="77" t="str">
         <v>VT00578</v>
       </c>
-      <c r="C216" s="81" t="str">
+      <c r="C216" t="str">
         <v>Magnum</v>
       </c>
-      <c r="D216" s="81" t="str">
+      <c r="D216" t="str">
         <v>Locksley</v>
       </c>
-      <c r="E216" s="81" t="str">
+      <c r="E216" t="str">
         <v>Female</v>
       </c>
-      <c r="F216" s="81" t="str">
+      <c r="F216" t="str">
         <v>Services</v>
       </c>
-      <c r="G216" s="81">
+      <c r="G216">
         <v>42314.39</v>
       </c>
-      <c r="H216" s="81" t="str">
+      <c r="H216" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I216" s="82">
+      <c r="I216" s="6">
         <v>44487</v>
       </c>
-      <c r="J216" s="81">
-        <v>1</v>
-      </c>
-      <c r="K216" s="81" t="str">
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L216" s="81" t="str">
+      <c r="L216" t="str">
         <v>Remote</v>
       </c>
-      <c r="M216" s="81">
+      <c r="M216">
         <v>2.6767123287671235</v>
       </c>
-      <c r="N216" s="83" t="str">
+      <c r="N216" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B217" s="80" t="str">
+      <c r="B217" s="77" t="str">
         <v>VT00596</v>
       </c>
-      <c r="C217" s="81" t="str">
+      <c r="C217" t="str">
         <v>Letisha</v>
       </c>
-      <c r="D217" s="81" t="str">
+      <c r="D217" t="str">
         <v>Carrett</v>
       </c>
-      <c r="E217" s="81" t="str">
+      <c r="E217" t="str">
         <v>Female</v>
       </c>
-      <c r="F217" s="81" t="str">
+      <c r="F217" t="str">
         <v>Sales</v>
       </c>
-      <c r="G217" s="81">
+      <c r="G217">
         <v>84598.88</v>
       </c>
-      <c r="H217" s="81" t="str">
+      <c r="H217" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I217" s="82">
+      <c r="I217" s="6">
         <v>44116</v>
       </c>
-      <c r="J217" s="81">
-        <v>1</v>
-      </c>
-      <c r="K217" s="81" t="str">
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L217" s="81" t="str">
+      <c r="L217" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M217" s="81">
+      <c r="M217">
         <v>3.6931506849315068</v>
       </c>
-      <c r="N217" s="83" t="str">
+      <c r="N217" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B218" s="80" t="str">
+      <c r="B218" s="77" t="str">
         <v>VT00596</v>
       </c>
-      <c r="C218" s="81" t="str">
+      <c r="C218" t="str">
         <v>Letisha</v>
       </c>
-      <c r="D218" s="81" t="str">
+      <c r="D218" t="str">
         <v>Carrett</v>
       </c>
-      <c r="E218" s="81" t="str">
+      <c r="E218" t="str">
         <v>Female</v>
       </c>
-      <c r="F218" s="81" t="str">
+      <c r="F218" t="str">
         <v>Sales</v>
       </c>
-      <c r="G218" s="81">
+      <c r="G218">
         <v>84598.88</v>
       </c>
-      <c r="H218" s="81" t="str">
+      <c r="H218" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I218" s="82">
+      <c r="I218" s="6">
         <v>44116</v>
       </c>
-      <c r="J218" s="81">
-        <v>1</v>
-      </c>
-      <c r="K218" s="81" t="str">
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L218" s="81" t="str">
+      <c r="L218" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M218" s="81">
+      <c r="M218">
         <v>3.6931506849315068</v>
       </c>
-      <c r="N218" s="83" t="str">
+      <c r="N218" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="219" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B219" s="80" t="str">
+      <c r="B219" s="77" t="str">
         <v>VT00740</v>
       </c>
-      <c r="C219" s="81" t="str">
+      <c r="C219" t="str">
         <v>Chitrasen</v>
       </c>
-      <c r="D219" s="81" t="str">
+      <c r="D219" t="str">
         <v>Laul</v>
       </c>
-      <c r="E219" s="81" t="str">
+      <c r="E219" t="str">
         <v>Female</v>
       </c>
-      <c r="F219" s="81" t="str">
+      <c r="F219" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="G219" s="81">
+      <c r="G219">
         <v>46751.7</v>
       </c>
-      <c r="H219" s="81" t="str">
+      <c r="H219" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I219" s="82">
+      <c r="I219" s="6">
         <v>43843</v>
       </c>
-      <c r="J219" s="81">
-        <v>1</v>
-      </c>
-      <c r="K219" s="81" t="str">
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L219" s="81" t="str">
+      <c r="L219" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M219" s="81">
+      <c r="M219">
         <v>4.441095890410959</v>
       </c>
-      <c r="N219" s="83" t="str">
+      <c r="N219" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="220" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B220" s="80" t="str">
+      <c r="B220" s="77" t="str">
         <v>VT01249</v>
       </c>
-      <c r="C220" s="81" t="str">
+      <c r="C220" t="str">
         <v>Brendan</v>
       </c>
-      <c r="D220" s="81" t="str">
+      <c r="D220" t="str">
         <v>Edgeller</v>
       </c>
-      <c r="E220" s="81" t="str">
+      <c r="E220" t="str">
         <v>Female</v>
       </c>
-      <c r="F220" s="81" t="str">
+      <c r="F220" t="str">
         <v>Legal</v>
       </c>
-      <c r="G220" s="81">
+      <c r="G220">
         <v>31042.51</v>
       </c>
-      <c r="H220" s="81" t="str">
+      <c r="H220" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I220" s="82">
+      <c r="I220" s="6">
         <v>44473</v>
       </c>
-      <c r="J220" s="81">
+      <c r="J220">
         <v>0.3</v>
       </c>
-      <c r="K220" s="81" t="str">
+      <c r="K220" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L220" s="81" t="str">
+      <c r="L220" t="str">
         <v>Remote</v>
       </c>
-      <c r="M220" s="81">
+      <c r="M220">
         <v>2.7150684931506848</v>
       </c>
-      <c r="N220" s="83" t="str">
+      <c r="N220" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="221" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B221" s="80" t="str">
+      <c r="B221" s="77" t="str">
         <v>VT01610</v>
       </c>
-      <c r="C221" s="81" t="str">
+      <c r="C221" t="str">
         <v>Dhruv</v>
       </c>
-      <c r="D221" s="81" t="str">
+      <c r="D221" t="str">
         <v>Manjunath</v>
       </c>
-      <c r="E221" s="81" t="str">
+      <c r="E221" t="str">
         <v>Female</v>
       </c>
-      <c r="F221" s="81" t="str">
+      <c r="F221" t="str">
         <v>Accounting</v>
       </c>
-      <c r="G221" s="81">
+      <c r="G221">
         <v>76303.820000000007</v>
       </c>
-      <c r="H221" s="81" t="str">
+      <c r="H221" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I221" s="82">
+      <c r="I221" s="6">
         <v>43458</v>
       </c>
-      <c r="J221" s="81">
-        <v>1</v>
-      </c>
-      <c r="K221" s="81" t="str">
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L221" s="81" t="str">
+      <c r="L221" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M221" s="81">
+      <c r="M221">
         <v>5.4958904109589044</v>
       </c>
-      <c r="N221" s="83" t="str">
+      <c r="N221" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="222" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B222" s="80" t="str">
+      <c r="B222" s="77" t="str">
         <v>VT01610</v>
       </c>
-      <c r="C222" s="81" t="str">
+      <c r="C222" t="str">
         <v>Kunja</v>
       </c>
-      <c r="D222" s="81" t="str">
+      <c r="D222" t="str">
         <v>Prashanta</v>
       </c>
-      <c r="E222" s="81" t="str">
+      <c r="E222" t="str">
         <v>Female</v>
       </c>
-      <c r="F222" s="81" t="str">
+      <c r="F222" t="str">
         <v>Accounting</v>
       </c>
-      <c r="G222" s="81">
+      <c r="G222">
         <v>76303.820000000007</v>
       </c>
-      <c r="H222" s="81" t="str">
+      <c r="H222" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I222" s="82">
+      <c r="I222" s="6">
         <v>43458</v>
       </c>
-      <c r="J222" s="81">
-        <v>1</v>
-      </c>
-      <c r="K222" s="81" t="str">
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L222" s="81" t="str">
+      <c r="L222" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M222" s="81">
+      <c r="M222">
         <v>5.4958904109589044</v>
       </c>
-      <c r="N222" s="83" t="str">
+      <c r="N222" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="223" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B223" s="80" t="str">
+      <c r="B223" s="77" t="str">
         <v>VT01803</v>
       </c>
-      <c r="C223" s="81" t="str">
+      <c r="C223" t="str">
         <v>Freddy</v>
       </c>
-      <c r="D223" s="81" t="str">
+      <c r="D223" t="str">
         <v>Linford</v>
       </c>
-      <c r="E223" s="81" t="str">
+      <c r="E223" t="str">
         <v>Female</v>
       </c>
-      <c r="F223" s="81" t="str">
+      <c r="F223" t="str">
         <v>Training</v>
       </c>
-      <c r="G223" s="81">
+      <c r="G223">
         <v>93128.34</v>
       </c>
-      <c r="H223" s="81" t="str">
+      <c r="H223" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I223" s="82">
+      <c r="I223" s="6">
         <v>43164</v>
       </c>
-      <c r="J223" s="81">
-        <v>1</v>
-      </c>
-      <c r="K223" s="81" t="str">
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223" t="str">
         <v>Fixed Term</v>
       </c>
-      <c r="L223" s="81" t="str">
+      <c r="L223" t="str">
         <v>Seattle, USA</v>
       </c>
-      <c r="M223" s="81">
+      <c r="M223">
         <v>6.3013698630136989</v>
       </c>
-      <c r="N223" s="83" t="str">
+      <c r="N223" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="224" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B224" s="80" t="str">
+      <c r="B224" s="77" t="str">
         <v>VT02374</v>
       </c>
-      <c r="C224" s="81" t="str">
+      <c r="C224" t="str">
         <v>Delphine</v>
       </c>
-      <c r="D224" s="81" t="str">
+      <c r="D224" t="str">
         <v>Jewis</v>
       </c>
-      <c r="E224" s="81" t="str">
+      <c r="E224" t="str">
         <v>Female</v>
       </c>
-      <c r="F224" s="81" t="str">
+      <c r="F224" t="str">
         <v>Accounting</v>
       </c>
-      <c r="G224" s="81">
+      <c r="G224">
         <v>71823.56</v>
       </c>
-      <c r="H224" s="81" t="str">
+      <c r="H224" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I224" s="82">
+      <c r="I224" s="6">
         <v>43374</v>
       </c>
-      <c r="J224" s="81">
+      <c r="J224">
         <v>0.3</v>
       </c>
-      <c r="K224" s="81" t="str">
+      <c r="K224" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L224" s="81" t="str">
+      <c r="L224" t="str">
         <v>Remote</v>
       </c>
-      <c r="M224" s="81">
+      <c r="M224">
         <v>5.7260273972602738</v>
       </c>
-      <c r="N224" s="83" t="str">
+      <c r="N224" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B225" s="80" t="str">
+      <c r="B225" s="77" t="str">
         <v>VT02374</v>
       </c>
-      <c r="C225" s="81" t="str">
+      <c r="C225" t="str">
         <v>Delphine</v>
       </c>
-      <c r="D225" s="81" t="str">
+      <c r="D225" t="str">
         <v>Jewis</v>
       </c>
-      <c r="E225" s="81" t="str">
+      <c r="E225" t="str">
         <v>Female</v>
       </c>
-      <c r="F225" s="81" t="str">
+      <c r="F225" t="str">
         <v>Accounting</v>
       </c>
-      <c r="G225" s="81">
+      <c r="G225">
         <v>71823.56</v>
       </c>
-      <c r="H225" s="81" t="str">
+      <c r="H225" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I225" s="82">
+      <c r="I225" s="6">
         <v>43374</v>
       </c>
-      <c r="J225" s="81">
+      <c r="J225">
         <v>0.3</v>
       </c>
-      <c r="K225" s="81" t="str">
+      <c r="K225" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L225" s="81" t="str">
+      <c r="L225" t="str">
         <v>Remote</v>
       </c>
-      <c r="M225" s="81">
+      <c r="M225">
         <v>5.7260273972602738</v>
       </c>
-      <c r="N225" s="83" t="str">
+      <c r="N225" s="78" t="str">
         <v>Part time</v>
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B226" s="80" t="str">
+      <c r="B226" s="77" t="str">
         <v>VT02532</v>
       </c>
-      <c r="C226" s="81" t="str">
+      <c r="C226" t="str">
         <v>Adey</v>
       </c>
-      <c r="D226" s="81" t="str">
+      <c r="D226" t="str">
         <v>Ryal</v>
       </c>
-      <c r="E226" s="81" t="str">
+      <c r="E226" t="str">
         <v>Female</v>
       </c>
-      <c r="F226" s="81" t="str">
+      <c r="F226" t="str">
         <v>Legal</v>
       </c>
-      <c r="G226" s="81">
+      <c r="G226">
         <v>32496.880000000001</v>
       </c>
-      <c r="H226" s="81" t="str">
+      <c r="H226" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="I226" s="82">
+      <c r="I226" s="6">
         <v>43234</v>
       </c>
-      <c r="J226" s="81">
-        <v>1</v>
-      </c>
-      <c r="K226" s="81" t="str">
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L226" s="81" t="str">
+      <c r="L226" t="str">
         <v>Remote</v>
       </c>
-      <c r="M226" s="81">
+      <c r="M226">
         <v>6.1095890410958908</v>
       </c>
-      <c r="N226" s="83" t="str">
+      <c r="N226" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B227" s="80" t="str">
+      <c r="B227" s="77" t="str">
         <v>VT03701</v>
       </c>
-      <c r="C227" s="81" t="str">
+      <c r="C227" t="str">
         <v>Narois</v>
       </c>
-      <c r="D227" s="81" t="str">
+      <c r="D227" t="str">
         <v>Motiwala</v>
       </c>
-      <c r="E227" s="81" t="str">
+      <c r="E227" t="str">
         <v>Female</v>
       </c>
-      <c r="F227" s="81" t="str">
+      <c r="F227" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G227" s="81">
+      <c r="G227">
         <v>89829.33</v>
       </c>
-      <c r="H227" s="81" t="str">
+      <c r="H227" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I227" s="82">
+      <c r="I227" s="6">
         <v>43794</v>
       </c>
-      <c r="J227" s="81">
-        <v>1</v>
-      </c>
-      <c r="K227" s="81" t="str">
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L227" s="81" t="str">
+      <c r="L227" t="str">
         <v>Chennai, India</v>
       </c>
-      <c r="M227" s="81">
+      <c r="M227">
         <v>4.5753424657534243</v>
       </c>
-      <c r="N227" s="83" t="str">
+      <c r="N227" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B228" s="80" t="str">
+      <c r="B228" s="77" t="str">
         <v>VT03988</v>
       </c>
-      <c r="C228" s="81" t="str">
+      <c r="C228" t="str">
         <v>Venkat</v>
       </c>
-      <c r="D228" s="81" t="str">
+      <c r="D228" t="str">
         <v>Kodi</v>
       </c>
-      <c r="E228" s="81" t="str">
+      <c r="E228" t="str">
         <v>Female</v>
       </c>
-      <c r="F228" s="81" t="str">
+      <c r="F228" t="str">
         <v>Support</v>
       </c>
-      <c r="G228" s="81">
+      <c r="G228">
         <v>58935.92</v>
       </c>
-      <c r="H228" s="81" t="str">
+      <c r="H228" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I228" s="82">
+      <c r="I228" s="6">
         <v>43717</v>
       </c>
-      <c r="J228" s="81">
-        <v>1</v>
-      </c>
-      <c r="K228" s="81" t="str">
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L228" s="81" t="str">
+      <c r="L228" t="str">
         <v>Hyderabad, India</v>
       </c>
-      <c r="M228" s="81">
+      <c r="M228">
         <v>4.7863013698630139</v>
       </c>
-      <c r="N228" s="83" t="str">
+      <c r="N228" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B229" s="80" t="str">
+      <c r="B229" s="77" t="str">
         <v>VT04415</v>
       </c>
-      <c r="C229" s="81" t="str">
+      <c r="C229" t="str">
         <v>Malory</v>
       </c>
-      <c r="D229" s="81" t="str">
+      <c r="D229" t="str">
         <v>Biles</v>
       </c>
-      <c r="E229" s="81" t="str">
+      <c r="E229" t="str">
         <v>Female</v>
       </c>
-      <c r="F229" s="81" t="str">
+      <c r="F229" t="str">
         <v>Training</v>
       </c>
-      <c r="G229" s="81">
+      <c r="G229">
         <v>58744.17</v>
       </c>
-      <c r="H229" s="81" t="str">
+      <c r="H229" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="I229" s="82">
+      <c r="I229" s="6">
         <v>43171</v>
       </c>
-      <c r="J229" s="81">
-        <v>1</v>
-      </c>
-      <c r="K229" s="81" t="str">
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L229" s="81" t="str">
+      <c r="L229" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M229" s="81">
+      <c r="M229">
         <v>6.2821917808219174</v>
       </c>
-      <c r="N229" s="83" t="str">
+      <c r="N229" s="78" t="str">
         <v>Full time</v>
       </c>
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B230" s="84" t="str">
+      <c r="B230" s="79" t="str">
         <v>VT04552</v>
       </c>
-      <c r="C230" s="85" t="str">
+      <c r="C230" s="80" t="str">
         <v>Theresita</v>
       </c>
-      <c r="D230" s="85" t="str">
+      <c r="D230" s="80" t="str">
         <v>Chasmer</v>
       </c>
-      <c r="E230" s="85" t="str">
+      <c r="E230" s="80" t="str">
         <v>Female</v>
       </c>
-      <c r="F230" s="85" t="str">
+      <c r="F230" s="80" t="str">
         <v>Product Management</v>
       </c>
-      <c r="G230" s="85">
+      <c r="G230" s="80">
         <v>106665.67</v>
       </c>
-      <c r="H230" s="85" t="str">
+      <c r="H230" s="80" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I230" s="86">
+      <c r="I230" s="81">
         <v>43311</v>
       </c>
-      <c r="J230" s="85">
-        <v>1</v>
-      </c>
-      <c r="K230" s="85" t="str">
+      <c r="J230" s="80">
+        <v>1</v>
+      </c>
+      <c r="K230" s="80" t="str">
         <v>Temporary</v>
       </c>
-      <c r="L230" s="85" t="str">
+      <c r="L230" s="80" t="str">
         <v>Columbus, USA</v>
       </c>
-      <c r="M230" s="85">
+      <c r="M230" s="80">
         <v>5.8986301369863012</v>
       </c>
-      <c r="N230" s="87" t="str">
+      <c r="N230" s="82" t="str">
         <v>Full time</v>
       </c>
     </row>
@@ -29089,10 +29134,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2FA2C-8D49-4E03-9F0A-C46BA338673C}">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29105,15 +29150,22 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D1" cm="1">
+        <f t="array" ref="D1">MEDIAN(staff[Salary],staff[Department]=B8)</f>
+        <v>73360.38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="55" t="s">
         <v>823</v>
       </c>
@@ -29122,507 +29174,614 @@
         <f>COUNTA(staff[Emp ID])</f>
         <v>260</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="88">
         <f>AVERAGE(staff[Salary])</f>
         <v>73861.325230769246</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
-      <c r="H4" s="96">
+      <c r="H4" s="88">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
       </c>
-      <c r="I4" t="e">
-        <f>MEDIAN(B6:B18)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="97" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90" t="s">
         <v>768</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="90" t="s">
         <v>770</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="113" t="s">
         <v>822</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="99" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="90" t="s">
         <v>779</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="117" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="89" t="str" cm="1">
+      <c r="J6" s="117" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="83" t="str" cm="1">
         <f t="array" ref="B7:B18">_xlfn._xlws.SORT((_xlfn.UNIQUE(staff[Department])))</f>
         <v>Accounting</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90" cm="1">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" cm="1">
         <f t="array" ref="D7:D18">COUNTIFS(staff[Department],_xlfn.ANCHORARRAY(B7))</f>
         <v>26</v>
       </c>
-      <c r="E7" s="104" cm="1">
+      <c r="E7" s="94" cm="1">
         <f t="array" ref="E7:E18">AVERAGEIFS(staff[Salary],staff[Department],_xlfn.ANCHORARRAY(B7))</f>
         <v>69806.945769230777</v>
       </c>
-      <c r="F7" s="106" cm="1">
+      <c r="F7" s="96" cm="1">
         <f t="array" ref="F7:F18">_xlfn.ANCHORARRAY(E7)-E4</f>
         <v>-4054.3794615384686</v>
       </c>
-      <c r="G7" s="109" cm="1">
+      <c r="G7" s="99" cm="1">
         <f t="array" ref="G7:G18">_xlfn.ANCHORARRAY(E7)-E4</f>
         <v>-4054.3794615384686</v>
       </c>
-      <c r="H7" s="102" cm="1">
+      <c r="H7" s="92" cm="1">
         <f t="array" ref="H7:H18">_xlfn.MAXIFS(staff[Salary],staff[Department],_xlfn.ANCHORARRAY(B7))</f>
         <v>119022.49</v>
       </c>
-      <c r="I7" s="113" cm="1">
+      <c r="I7" s="102" cm="1">
         <f t="array" ref="I7">MEDIAN(_xlfn._xlws.FILTER(staff[Salary], staff[Department]=B7))</f>
         <v>69025.614999999991</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="89" t="str">
+      <c r="J7" s="118">
+        <f>COUNTIF(staff[Gender], "Female") / COUNTA(staff[Gender])</f>
+        <v>0.48076923076923078</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="83" t="str">
         <v>Business Development</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52">
         <v>26</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="94">
         <v>79781.805769230778</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="97">
         <v>5920.480538461532</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="100">
         <v>5920.480538461532</v>
       </c>
-      <c r="H8" s="102">
+      <c r="H8" s="92">
         <v>110042.37</v>
       </c>
-      <c r="I8" s="113" cm="1">
-        <f t="array" ref="I8">MEDIAN(staff[Salary],staff[Department]=B8)</f>
-        <v>73360.38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="89" t="str">
+      <c r="I8" s="102"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="83" t="str">
         <v>Engineering</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52">
         <v>26</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="94">
         <v>81976.441923076913</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="97">
         <v>8115.1166923076671</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="100">
         <v>8115.1166923076671</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="92">
         <v>120000</v>
       </c>
-      <c r="I9" s="113"/>
-    </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="89" t="str">
+      <c r="I9" s="102"/>
+      <c r="J9" s="114"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="83" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52">
         <v>22</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="94">
         <v>73109.377727272746</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="97">
         <v>-751.94750349649985</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="100">
         <v>-751.94750349649985</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="92">
         <v>103494.94</v>
       </c>
-      <c r="I10" s="91"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="89" t="str">
+      <c r="I10" s="84"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="83" t="str">
         <v>Legal</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52">
         <v>21</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="94">
         <v>67242.51761904762</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="97">
         <v>-6618.807611721626</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="100">
         <v>-6618.807611721626</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="92">
         <v>113747.56</v>
       </c>
-      <c r="I11" s="91"/>
-    </row>
-    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="str">
+      <c r="I11" s="84"/>
+      <c r="J11" s="115"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="83" t="str">
         <v>Marketing</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52">
         <v>12</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="94">
         <v>64441.299999999996</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="97">
         <v>-9420.0252307692499</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="100">
         <v>-9420.0252307692499</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="92">
         <v>104903.79</v>
       </c>
-      <c r="I12" s="91"/>
-    </row>
-    <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="89" t="str">
+      <c r="I12" s="84"/>
+      <c r="J12" s="115"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="83" t="str">
         <v>Product Management</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52">
         <v>29</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="94">
         <v>75179.064482758593</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="97">
         <v>1317.7392519893474</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="100">
         <v>1317.7392519893474</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="92">
         <v>115191.38</v>
       </c>
-      <c r="I13" s="91"/>
-    </row>
-    <row r="14" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="89" t="str">
+      <c r="I13" s="84"/>
+      <c r="J13" s="115"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="83" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52">
         <v>18</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="94">
         <v>66910.765555555554</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="97">
         <v>-6950.5596752136917</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="100">
         <v>-6950.5596752136917</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="92">
         <v>99683.67</v>
       </c>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="89" t="str">
+      <c r="I14" s="84"/>
+      <c r="J14" s="115"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="83" t="str">
         <v>Sales</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52">
         <v>18</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="94">
         <v>71897.095555555556</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="97">
         <v>-1964.2296752136899</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="100">
         <v>-1964.2296752136899</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="92">
         <v>102129.37</v>
       </c>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="89" t="str">
+      <c r="I15" s="84"/>
+      <c r="J15" s="115"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="83" t="str">
         <v>Services</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52">
         <v>21</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="94">
         <v>74673.974761904756</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="97">
         <v>812.64953113551019</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="100">
         <v>812.64953113551019</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="92">
         <v>120000</v>
       </c>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="89" t="str">
+      <c r="I16" s="84"/>
+      <c r="J16" s="115"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="83" t="str">
         <v>Support</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52">
         <v>17</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="94">
         <v>66432.455882352937</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="97">
         <v>-7428.8693484163086</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="100">
         <v>-7428.8693484163086</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="92">
         <v>104802.63</v>
       </c>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="92" t="str">
+      <c r="I17" s="84"/>
+      <c r="J17" s="115"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="85" t="str">
         <v>Training</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93">
+      <c r="C18" s="86"/>
+      <c r="D18" s="86">
         <v>24</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="95">
         <v>83883.965000000011</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="98">
         <v>10022.639769230766</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="101">
         <v>10022.639769230766</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="93">
         <v>116767.63</v>
       </c>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90" cm="1">
+      <c r="I18" s="87"/>
+      <c r="J18" s="115"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52" cm="1">
         <f t="array" ref="D21:D46">_xlfn._xlws.SORT((_xlfn._xlws.FILTER(staff[Salary],staff[Department]=B7)))</f>
         <v>35936.31</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="91">
         <f>MEDIAN(D21:D46)</f>
         <v>69025.614999999991</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="90">
+      <c r="F21" s="52"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="52">
         <v>36547.58</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="90">
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="52">
         <v>36547.58</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="90">
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="52">
         <v>38825.18</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="90">
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="52">
         <v>44845.33</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>49915.14</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="104"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>52246.29</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="105"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>52270.22</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="104"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>52963.65</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G29" s="105"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>57419.35</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="104"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>57925.91</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="105"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>67633.850000000006</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G32" s="104"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>68887.839999999997</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G33" s="105"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>69163.39</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G34" s="104"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>69163.39</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G35" s="105"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>71823.56</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G36" s="104"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>71823.56</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G37" s="105"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>76303.820000000007</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G38" s="104"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>76303.820000000007</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G39" s="105"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>91645.04</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G40" s="104"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>95954.02</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G41" s="105"/>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>98012.63</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G42" s="104"/>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>102515.81</v>
       </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G43" s="105"/>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>107107.6</v>
       </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G44" s="104"/>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>114177.23</v>
       </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G45" s="105"/>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>119022.49</v>
       </c>
+      <c r="G46" s="104"/>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="105"/>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="104"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="105"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="104"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="105"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="104"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="105"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="104"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="105"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="104"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="105"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="104"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="105"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="104"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="105"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="104"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="105"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="104"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="105"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="104"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="105"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="5">
